--- a/countries_with_tiny_vkp.xlsx
+++ b/countries_with_tiny_vkp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="1118">
   <si>
     <t>SOV_A3</t>
   </si>
@@ -1488,6 +1488,9 @@
     <t>Somalia</t>
   </si>
   <si>
+    <t>Easter Island</t>
+  </si>
+  <si>
     <t>Western Sahara</t>
   </si>
   <si>
@@ -1656,6 +1659,9 @@
     <t>Wake Island, U.S.</t>
   </si>
   <si>
+    <t>Easter Island (Chile)</t>
+  </si>
+  <si>
     <t>B28</t>
   </si>
   <si>
@@ -2664,7 +2670,7 @@
     <t>POLYGON ((-54.524754197799716 2.3118488631237852, -55.09758744975514 2.5237480737366127, -55.569755011606 2.4215062524471307, -55.973322109589375 2.510363877773017, -56.0733418442903 2.2207949894254995, -55.905600145070885 2.0219957543986595, -55.995698004771754 1.8176671411166012, -56.539385748914555 1.8995226098669207, -57.15009782573991 2.7689269067454063, -57.28143347840971 3.3334919295341194, -57.60156897645787 3.3346546492606848, -58.04469438336068 4.0608635522583825, -57.8602095200787 4.57680105226045, -57.91428890647214 4.812626451024414, -57.307245856339506 5.073566595882227, -57.14743648947689 5.973149929219161, -55.9493184067898 5.772877915872002, -55.841779751190415 5.95312531170606, -55.033250291551774 6.025291449401664, -53.9580446030709 5.756548163267765, -54.47863298197923 4.896755682795586, -54.399542202356514 4.212611395683467, -54.00693050801901 3.6200377465925584, -54.181726040246275 3.1897797713304215, -54.2697051662232 2.7323916691150463, -54.524754197799716 2.3118488631237852))</t>
   </si>
   <si>
-    <t>POLYGON ((-75.37322323271385 -0.1520317521204504, -75.23372270374195 -0.9114169246495294, -75.54499569365204 -1.5616097957458803, -76.63539425322672 -2.6086776668438176, -77.83790483265861 -3.003020521663103, -78.45068396677564 -3.873096612161376, -78.63989722361234 -4.547784112164074, -79.20528906931773 -4.959128513207389, -79.62497921417618 -4.454198093283495, -80.02890804718561 -4.3460909969288934, -80.44224199087216 -4.425724379090674, -80.46929460317695 -4.0592867977089995, -80.18401485870967 -3.8211617977080437, -80.30256059438722 -3.4048564591647126, -79.77029334178093 -2.65751189535964, -79.98655921092242 -2.220794366061014, -80.36878394236925 -2.6851587866357884, -80.96776546906436 -2.246942640800704, -80.76480628123804 -1.9650477026485331, -80.93365902375172 -1.057454522306358, -80.58337032746127 -0.9066626928786832, -80.39932471385376 -0.2837033016001413, -80.02089820018037 0.3603400740534682, -80.09060970734211 0.7684288598623965, -79.5427620103998 0.982937730305963, -78.85525875518871 1.380923773601822, -77.85506140817952 0.8099250349927729, -77.66861284047044 0.8258930525709616, -77.4249843004304 0.395686753741117, -76.5763797675494 0.256935533037435, -76.29231441924097 0.4160472680641192, -75.8014658271166 0.0848013370732019, -75.37322323271385 -0.1520317521204504))</t>
+    <t>MULTIPOLYGON (((-90.92406755635876 -0.9777404647256711, -91.22330287330216 -1.055541647130953, -91.44473700784026 -0.9777404647256711, -91.33102758740178 -0.6964592667988838, -91.07966992116933 -0.5827498463603953, -91.43276759516253 0.0037513748486511, -91.55844642827876 -0.0501109822011592, -91.5883699599731 0.0097360811875189, -91.3429970000795 0.1773078586758179, -90.79838872324254 -0.7383522111709584, -90.92406755635876 -0.9777404647256711)), ((-91.6242781980063 -0.522902782971717, -91.64821702336177 -0.3254074737890789, -91.45072171417914 -0.2535909977226649, -91.35496641275725 -0.4750251322607744, -91.6242781980063 -0.522902782971717)), ((-90.57695458870442 -0.2416215850449297, -90.54104635067122 -0.3134380611113432, -90.5829392950433 -0.3852545371777572, -90.79838872324254 -0.3373768864668145, -90.86422049297009 -0.2715451167392686, -90.8043734295814 -0.1398815772841766, -90.57695458870442 -0.2416215850449297)), ((-90.49915340629914 -0.5109333702939813, -90.2477957400667 -0.3972239498554928, -90.14007102596707 -0.6665357351045444, -90.36748986684405 -0.7922145682207691, -90.54703105701009 -0.6725204414434125, -90.49915340629914 -0.5109333702939813)), ((-89.64296639741475 -0.9017853722172174, -89.3431711566463 -0.6754693571273122, -89.23442190264207 -0.7166177235072949, -89.40489370621628 -0.9252987244343504, -89.55479132660051 -0.9723254288686164, -89.64296639741475 -0.9017853722172174)), ((-75.37322323271385 -0.1520317521204504, -75.23372270374195 -0.9114169246495294, -75.54499569365204 -1.5616097957458803, -76.63539425322672 -2.6086776668438176, -77.83790483265861 -3.003020521663103, -78.45068396677564 -3.873096612161376, -78.63989722361234 -4.547784112164074, -79.20528906931773 -4.959128513207389, -79.62497921417618 -4.454198093283495, -80.02890804718561 -4.3460909969288934, -80.44224199087216 -4.425724379090674, -80.46929460317695 -4.0592867977089995, -80.18401485870967 -3.8211617977080437, -80.30256059438722 -3.4048564591647126, -79.77029334178093 -2.65751189535964, -79.98655921092242 -2.220794366061014, -80.36878394236925 -2.6851587866357884, -80.96776546906436 -2.246942640800704, -80.76480628123804 -1.9650477026485331, -80.93365902375172 -1.057454522306358, -80.58337032746127 -0.9066626928786832, -80.39932471385376 -0.2837033016001413, -80.02089820018037 0.3603400740534682, -80.09060970734211 0.7684288598623965, -79.5427620103998 0.982937730305963, -78.85525875518871 1.380923773601822, -77.85506140817952 0.8099250349927729, -77.66861284047044 0.8258930525709616, -77.4249843004304 0.395686753741117, -76.5763797675494 0.256935533037435, -76.29231441924097 0.4160472680641192, -75.8014658271166 0.0848013370732019, -75.37322323271385 -0.1520317521204504)))</t>
   </si>
   <si>
     <t>POLYGON ((-66.28243445500821 18.514761664295364, -65.7713028632093 18.426679185453878, -65.59100379094295 18.228034979723915, -65.84716386581377 17.97590566657186, -66.59993445500949 17.981822618069273, -67.18416236028527 17.946553453030077, -67.24242753769435 18.374460150622937, -67.10067908391774 18.52060110114435, -66.28243445500821 18.514761664295364))</t>
@@ -3286,6 +3292,9 @@
   </si>
   <si>
     <t>POLYGON ((40.993 -0.85829, 40.98105 2.7845199999999997, 41.85508309264397 3.918911920483727, 42.128609999999995 4.23413, 42.76967 4.25259, 43.66086999999999 4.957550000000083, 44.96360000000001 5.00162, 47.78942 8.003, 46.94834000000009 7.99688000000009, 43.678750000000036 9.18358000000012, 43.29699000000011 9.540480000000173, 42.92812000000009 10.021940000000143, 42.55875999999995 10.57258000000013, 42.77685184100096 10.92687856693442, 43.14530480324214 11.462039699748857, 43.470659620951665 11.277709865763882, 43.66666832863484 10.86416921634816, 44.11780358254282 10.445538438351605, 44.614259067570856 10.442205308468942, 45.55694054543915 10.698029486529776, 46.645401238803004 10.816549383991173, 47.525657586462785 11.12722809492999, 48.02159630716778 11.193063869669743, 48.37878380716927 11.375481675660126, 48.94820641459347 11.41062164961852, 48.94820475850985 11.41061728169797, 49.26776 11.43033, 49.72862 11.5789, 50.25878000000001 11.67957, 50.73202 12.021900000000002, 51.1112 12.024640000000002, 51.13387 11.74815, 51.04153 11.16651, 51.04531 10.6409, 50.834179999999996 10.279720000000001, 50.55239 9.19874, 50.07092 8.08173, 49.45270000000001 6.80466, 48.594550000000005 5.339110000000001, 47.740790000000004 4.2194, 46.56476 2.85529, 45.563990000000004 2.04576, 44.068149999999996 1.0528300000000002, 43.13597 0.2922, 42.04157000000001 -0.9191600000000001, 41.81095 -1.4464700000000001, 41.58513 -1.6832500000000001, 40.993 -0.85829))</t>
+  </si>
+  <si>
+    <t>POLYGON ((-108.83415916902018 -27.1648609000898, -108.8586309108726 -27.319369397277274, -108.9296506718327 -27.458753526236034, -109.04026654287395 -27.569369397277274, -109.1796506718327 -27.640389158237376, -109.33415916902018 -27.6648609000898, -109.48866766620766 -27.640389158237376, -109.62805179516641 -27.569369397277274, -109.73866766620766 -27.458753526236038, -109.80968742716776 -27.319369397277274, -109.83415916902018 -27.164860900089803, -109.80968742716776 -27.010352402902328, -109.73866766620766 -26.870968273943564, -109.62805179516641 -26.760352402902328, -109.48866766620766 -26.689332641942222, -109.33415916902018 -26.6648609000898, -109.17965067183272 -26.689332641942222, -109.04026654287395 -26.760352402902324, -108.9296506718327 -26.87096827394356, -108.8586309108726 -27.010352402902324, -108.83415916902018 -27.1648609000898))</t>
   </si>
   <si>
     <t>Number of Features</t>
@@ -3718,7 +3727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J251"/>
+  <dimension ref="A1:J252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3773,19 +3782,19 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3805,19 +3814,19 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G3" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H3" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3831,25 +3840,25 @@
         <v>242</v>
       </c>
       <c r="D4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E4" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G4" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H4" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3869,19 +3878,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G5" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H5" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3895,25 +3904,25 @@
         <v>244</v>
       </c>
       <c r="D6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E6" t="s">
         <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G6" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H6" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="I6" t="s">
         <v>210</v>
       </c>
       <c r="J6" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3933,19 +3942,19 @@
         <v>211</v>
       </c>
       <c r="F7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G7" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H7" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="I7" t="s">
         <v>211</v>
       </c>
       <c r="J7" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3965,19 +3974,19 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G8" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H8" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3994,22 +4003,22 @@
         <v>247</v>
       </c>
       <c r="E9" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F9" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G9" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H9" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4029,19 +4038,19 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G10" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H10" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4061,19 +4070,19 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G11" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H11" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4093,19 +4102,19 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="G12" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H12" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I12" t="s">
         <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4119,25 +4128,25 @@
         <v>251</v>
       </c>
       <c r="D13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G13" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H13" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="I13" t="s">
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4157,19 +4166,19 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G14" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H14" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4189,19 +4198,19 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G15" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H15" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="I15" t="s">
         <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4221,19 +4230,19 @@
         <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="G16" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H16" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4253,19 +4262,19 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G17" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H17" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I17" t="s">
         <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4279,25 +4288,25 @@
         <v>256</v>
       </c>
       <c r="D18" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G18" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H18" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I18" t="s">
         <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4311,25 +4320,25 @@
         <v>257</v>
       </c>
       <c r="D19" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G19" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H19" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I19" t="s">
         <v>27</v>
       </c>
       <c r="J19" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4349,19 +4358,19 @@
         <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G20" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H20" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I20" t="s">
         <v>28</v>
       </c>
       <c r="J20" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4375,25 +4384,25 @@
         <v>259</v>
       </c>
       <c r="D21" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E21" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F21" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G21" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H21" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I21" t="s">
         <v>212</v>
       </c>
       <c r="J21" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4413,19 +4422,19 @@
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G22" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H22" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I22" t="s">
         <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4445,19 +4454,19 @@
         <v>213</v>
       </c>
       <c r="F23" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G23" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H23" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="I23" t="s">
         <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4471,25 +4480,25 @@
         <v>262</v>
       </c>
       <c r="D24" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E24" t="s">
         <v>214</v>
       </c>
       <c r="F24" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G24" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="H24" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="I24" t="s">
         <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4509,19 +4518,19 @@
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G25" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H25" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I25" t="s">
         <v>33</v>
       </c>
       <c r="J25" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4541,19 +4550,19 @@
         <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G26" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H26" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="I26" t="s">
         <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4573,19 +4582,19 @@
         <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G27" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H27" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="I27" t="s">
         <v>35</v>
       </c>
       <c r="J27" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4605,19 +4614,19 @@
         <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G28" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H28" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="I28" t="s">
         <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4637,19 +4646,19 @@
         <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G29" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H29" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I29" t="s">
         <v>37</v>
       </c>
       <c r="J29" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4669,19 +4678,19 @@
         <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G30" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H30" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I30" t="s">
         <v>38</v>
       </c>
       <c r="J30" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4701,19 +4710,19 @@
         <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G31" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H31" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I31" t="s">
         <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4733,19 +4742,19 @@
         <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G32" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H32" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I32" t="s">
         <v>40</v>
       </c>
       <c r="J32" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4765,19 +4774,19 @@
         <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G33" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H33" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I33" t="s">
         <v>41</v>
       </c>
       <c r="J33" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4797,19 +4806,19 @@
         <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G34" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H34" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="I34" t="s">
         <v>42</v>
       </c>
       <c r="J34" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4829,19 +4838,19 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G35" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H35" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="I35" t="s">
         <v>43</v>
       </c>
       <c r="J35" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4861,19 +4870,19 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G36" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H36" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="I36" t="s">
         <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4893,19 +4902,19 @@
         <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G37" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H37" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="I37" t="s">
         <v>45</v>
       </c>
       <c r="J37" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4925,19 +4934,19 @@
         <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G38" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H38" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="I38" t="s">
         <v>46</v>
       </c>
       <c r="J38" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4957,19 +4966,19 @@
         <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G39" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H39" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="I39" t="s">
         <v>47</v>
       </c>
       <c r="J39" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4989,19 +4998,19 @@
         <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G40" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H40" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="I40" t="s">
         <v>48</v>
       </c>
       <c r="J40" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -5021,19 +5030,19 @@
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G41" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H41" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I41" t="s">
         <v>49</v>
       </c>
       <c r="J41" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -5053,19 +5062,19 @@
         <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G42" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H42" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I42" t="s">
         <v>50</v>
       </c>
       <c r="J42" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -5085,19 +5094,19 @@
         <v>51</v>
       </c>
       <c r="F43" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G43" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H43" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I43" t="s">
         <v>51</v>
       </c>
       <c r="J43" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -5117,19 +5126,19 @@
         <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G44" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H44" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I44" t="s">
         <v>52</v>
       </c>
       <c r="J44" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -5149,19 +5158,19 @@
         <v>215</v>
       </c>
       <c r="F45" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G45" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H45" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I45" t="s">
         <v>215</v>
       </c>
       <c r="J45" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -5181,19 +5190,19 @@
         <v>53</v>
       </c>
       <c r="F46" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G46" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H46" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I46" t="s">
         <v>53</v>
       </c>
       <c r="J46" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -5213,19 +5222,19 @@
         <v>216</v>
       </c>
       <c r="F47" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G47" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H47" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I47" t="s">
         <v>216</v>
       </c>
       <c r="J47" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -5245,19 +5254,19 @@
         <v>55</v>
       </c>
       <c r="F48" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G48" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H48" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I48" t="s">
         <v>55</v>
       </c>
       <c r="J48" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -5277,19 +5286,19 @@
         <v>56</v>
       </c>
       <c r="F49" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G49" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H49" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="I49" t="s">
         <v>56</v>
       </c>
       <c r="J49" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -5309,19 +5318,19 @@
         <v>57</v>
       </c>
       <c r="F50" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G50" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H50" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="I50" t="s">
         <v>57</v>
       </c>
       <c r="J50" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -5341,19 +5350,19 @@
         <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G51" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H51" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I51" t="s">
         <v>58</v>
       </c>
       <c r="J51" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -5373,19 +5382,19 @@
         <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G52" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H52" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I52" t="s">
         <v>59</v>
       </c>
       <c r="J52" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -5405,19 +5414,19 @@
         <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G53" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H53" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I53" t="s">
         <v>60</v>
       </c>
       <c r="J53" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -5437,19 +5446,19 @@
         <v>61</v>
       </c>
       <c r="F54" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G54" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H54" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I54" t="s">
         <v>61</v>
       </c>
       <c r="J54" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -5469,19 +5478,19 @@
         <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G55" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H55" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I55" t="s">
         <v>62</v>
       </c>
       <c r="J55" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -5501,19 +5510,19 @@
         <v>63</v>
       </c>
       <c r="F56" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G56" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H56" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I56" t="s">
         <v>63</v>
       </c>
       <c r="J56" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -5533,19 +5542,19 @@
         <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G57" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H57" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="I57" t="s">
         <v>64</v>
       </c>
       <c r="J57" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -5565,19 +5574,19 @@
         <v>65</v>
       </c>
       <c r="F58" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G58" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H58" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I58" t="s">
         <v>65</v>
       </c>
       <c r="J58" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -5597,19 +5606,19 @@
         <v>66</v>
       </c>
       <c r="F59" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G59" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H59" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I59" t="s">
         <v>66</v>
       </c>
       <c r="J59" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -5629,19 +5638,19 @@
         <v>67</v>
       </c>
       <c r="F60" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G60" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H60" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I60" t="s">
         <v>67</v>
       </c>
       <c r="J60" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -5661,19 +5670,19 @@
         <v>68</v>
       </c>
       <c r="F61" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G61" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H61" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I61" t="s">
         <v>68</v>
       </c>
       <c r="J61" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -5693,19 +5702,19 @@
         <v>69</v>
       </c>
       <c r="F62" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="G62" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H62" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I62" t="s">
         <v>69</v>
       </c>
       <c r="J62" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -5725,19 +5734,19 @@
         <v>70</v>
       </c>
       <c r="F63" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G63" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H63" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I63" t="s">
         <v>70</v>
       </c>
       <c r="J63" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -5757,19 +5766,19 @@
         <v>71</v>
       </c>
       <c r="F64" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G64" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H64" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I64" t="s">
         <v>71</v>
       </c>
       <c r="J64" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -5789,19 +5798,19 @@
         <v>72</v>
       </c>
       <c r="F65" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G65" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H65" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I65" t="s">
         <v>72</v>
       </c>
       <c r="J65" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -5815,25 +5824,25 @@
         <v>304</v>
       </c>
       <c r="D66" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E66" t="s">
         <v>73</v>
       </c>
       <c r="F66" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G66" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H66" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="I66" t="s">
         <v>73</v>
       </c>
       <c r="J66" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -5847,25 +5856,25 @@
         <v>305</v>
       </c>
       <c r="D67" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E67" t="s">
         <v>74</v>
       </c>
       <c r="F67" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G67" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H67" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="I67" t="s">
         <v>74</v>
       </c>
       <c r="J67" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -5885,19 +5894,19 @@
         <v>75</v>
       </c>
       <c r="F68" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G68" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H68" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="I68" t="s">
         <v>75</v>
       </c>
       <c r="J68" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -5911,25 +5920,25 @@
         <v>307</v>
       </c>
       <c r="D69" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E69" t="s">
         <v>76</v>
       </c>
       <c r="F69" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G69" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H69" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="I69" t="s">
         <v>76</v>
       </c>
       <c r="J69" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -5949,19 +5958,19 @@
         <v>77</v>
       </c>
       <c r="F70" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G70" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H70" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I70" t="s">
         <v>77</v>
       </c>
       <c r="J70" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -5981,19 +5990,19 @@
         <v>78</v>
       </c>
       <c r="F71" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G71" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H71" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I71" t="s">
         <v>78</v>
       </c>
       <c r="J71" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -6013,19 +6022,19 @@
         <v>79</v>
       </c>
       <c r="F72" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G72" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H72" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I72" t="s">
         <v>79</v>
       </c>
       <c r="J72" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -6039,25 +6048,25 @@
         <v>311</v>
       </c>
       <c r="D73" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E73" t="s">
         <v>80</v>
       </c>
       <c r="F73" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G73" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H73" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="I73" t="s">
         <v>80</v>
       </c>
       <c r="J73" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -6077,19 +6086,19 @@
         <v>81</v>
       </c>
       <c r="F74" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G74" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H74" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="I74" t="s">
         <v>81</v>
       </c>
       <c r="J74" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -6109,19 +6118,19 @@
         <v>82</v>
       </c>
       <c r="F75" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G75" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H75" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I75" t="s">
         <v>82</v>
       </c>
       <c r="J75" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -6141,19 +6150,19 @@
         <v>217</v>
       </c>
       <c r="F76" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G76" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H76" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I76" t="s">
         <v>217</v>
       </c>
       <c r="J76" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -6173,19 +6182,19 @@
         <v>84</v>
       </c>
       <c r="F77" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G77" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H77" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I77" t="s">
         <v>84</v>
       </c>
       <c r="J77" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -6205,19 +6214,19 @@
         <v>85</v>
       </c>
       <c r="F78" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G78" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H78" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I78" t="s">
         <v>85</v>
       </c>
       <c r="J78" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -6237,19 +6246,19 @@
         <v>218</v>
       </c>
       <c r="F79" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G79" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H79" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I79" t="s">
         <v>218</v>
       </c>
       <c r="J79" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -6269,19 +6278,19 @@
         <v>86</v>
       </c>
       <c r="F80" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G80" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H80" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="I80" t="s">
         <v>86</v>
       </c>
       <c r="J80" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -6301,19 +6310,19 @@
         <v>87</v>
       </c>
       <c r="F81" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G81" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H81" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="I81" t="s">
         <v>87</v>
       </c>
       <c r="J81" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -6333,19 +6342,19 @@
         <v>88</v>
       </c>
       <c r="F82" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G82" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H82" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I82" t="s">
         <v>88</v>
       </c>
       <c r="J82" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -6365,19 +6374,19 @@
         <v>89</v>
       </c>
       <c r="F83" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G83" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H83" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I83" t="s">
         <v>89</v>
       </c>
       <c r="J83" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -6397,19 +6406,19 @@
         <v>90</v>
       </c>
       <c r="F84" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G84" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H84" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I84" t="s">
         <v>90</v>
       </c>
       <c r="J84" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -6429,19 +6438,19 @@
         <v>91</v>
       </c>
       <c r="F85" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G85" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H85" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I85" t="s">
         <v>91</v>
       </c>
       <c r="J85" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -6461,19 +6470,19 @@
         <v>92</v>
       </c>
       <c r="F86" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="G86" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H86" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I86" t="s">
         <v>92</v>
       </c>
       <c r="J86" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -6493,19 +6502,19 @@
         <v>93</v>
       </c>
       <c r="F87" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G87" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H87" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I87" t="s">
         <v>93</v>
       </c>
       <c r="J87" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -6525,19 +6534,19 @@
         <v>94</v>
       </c>
       <c r="F88" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="G88" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H88" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="I88" t="s">
         <v>94</v>
       </c>
       <c r="J88" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -6557,19 +6566,19 @@
         <v>95</v>
       </c>
       <c r="F89" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G89" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H89" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I89" t="s">
         <v>95</v>
       </c>
       <c r="J89" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -6589,19 +6598,19 @@
         <v>96</v>
       </c>
       <c r="F90" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G90" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H90" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I90" t="s">
         <v>96</v>
       </c>
       <c r="J90" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -6615,25 +6624,25 @@
         <v>329</v>
       </c>
       <c r="D91" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E91" t="s">
         <v>97</v>
       </c>
       <c r="F91" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G91" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H91" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I91" t="s">
         <v>97</v>
       </c>
       <c r="J91" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -6653,19 +6662,19 @@
         <v>98</v>
       </c>
       <c r="F92" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="G92" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H92" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I92" t="s">
         <v>98</v>
       </c>
       <c r="J92" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -6685,19 +6694,19 @@
         <v>99</v>
       </c>
       <c r="F93" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G93" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H93" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I93" t="s">
         <v>99</v>
       </c>
       <c r="J93" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -6711,25 +6720,25 @@
         <v>332</v>
       </c>
       <c r="D94" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E94" t="s">
         <v>100</v>
       </c>
       <c r="F94" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G94" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H94" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I94" t="s">
         <v>100</v>
       </c>
       <c r="J94" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -6743,25 +6752,25 @@
         <v>333</v>
       </c>
       <c r="D95" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E95" t="s">
         <v>101</v>
       </c>
       <c r="F95" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G95" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H95" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I95" t="s">
         <v>101</v>
       </c>
       <c r="J95" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -6781,19 +6790,19 @@
         <v>102</v>
       </c>
       <c r="F96" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G96" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H96" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I96" t="s">
         <v>102</v>
       </c>
       <c r="J96" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -6813,19 +6822,19 @@
         <v>103</v>
       </c>
       <c r="F97" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G97" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H97" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I97" t="s">
         <v>103</v>
       </c>
       <c r="J97" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -6845,19 +6854,19 @@
         <v>104</v>
       </c>
       <c r="F98" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G98" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H98" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I98" t="s">
         <v>104</v>
       </c>
       <c r="J98" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -6877,19 +6886,19 @@
         <v>105</v>
       </c>
       <c r="F99" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G99" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H99" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I99" t="s">
         <v>105</v>
       </c>
       <c r="J99" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -6909,19 +6918,19 @@
         <v>106</v>
       </c>
       <c r="F100" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="G100" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H100" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I100" t="s">
         <v>106</v>
       </c>
       <c r="J100" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -6941,19 +6950,19 @@
         <v>107</v>
       </c>
       <c r="F101" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G101" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H101" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I101" t="s">
         <v>107</v>
       </c>
       <c r="J101" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -6973,19 +6982,19 @@
         <v>108</v>
       </c>
       <c r="F102" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G102" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H102" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I102" t="s">
         <v>108</v>
       </c>
       <c r="J102" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -7005,19 +7014,19 @@
         <v>109</v>
       </c>
       <c r="F103" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G103" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H103" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="I103" t="s">
         <v>109</v>
       </c>
       <c r="J103" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -7037,19 +7046,19 @@
         <v>110</v>
       </c>
       <c r="F104" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="G104" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H104" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="I104" t="s">
         <v>110</v>
       </c>
       <c r="J104" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -7069,19 +7078,19 @@
         <v>111</v>
       </c>
       <c r="F105" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G105" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H105" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="I105" t="s">
         <v>111</v>
       </c>
       <c r="J105" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -7101,19 +7110,19 @@
         <v>112</v>
       </c>
       <c r="F106" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G106" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H106" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I106" t="s">
         <v>112</v>
       </c>
       <c r="J106" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -7133,19 +7142,19 @@
         <v>113</v>
       </c>
       <c r="F107" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G107" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H107" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I107" t="s">
         <v>113</v>
       </c>
       <c r="J107" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -7165,19 +7174,19 @@
         <v>114</v>
       </c>
       <c r="F108" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G108" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H108" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I108" t="s">
         <v>114</v>
       </c>
       <c r="J108" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -7197,19 +7206,19 @@
         <v>115</v>
       </c>
       <c r="F109" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G109" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H109" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I109" t="s">
         <v>115</v>
       </c>
       <c r="J109" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -7229,19 +7238,19 @@
         <v>116</v>
       </c>
       <c r="F110" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G110" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H110" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I110" t="s">
         <v>116</v>
       </c>
       <c r="J110" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -7261,19 +7270,19 @@
         <v>117</v>
       </c>
       <c r="F111" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G111" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H111" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I111" t="s">
         <v>117</v>
       </c>
       <c r="J111" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -7293,19 +7302,19 @@
         <v>118</v>
       </c>
       <c r="F112" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G112" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H112" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I112" t="s">
         <v>118</v>
       </c>
       <c r="J112" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -7325,19 +7334,19 @@
         <v>119</v>
       </c>
       <c r="F113" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G113" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H113" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="I113" t="s">
         <v>119</v>
       </c>
       <c r="J113" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -7357,19 +7366,19 @@
         <v>120</v>
       </c>
       <c r="F114" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G114" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H114" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I114" t="s">
         <v>120</v>
       </c>
       <c r="J114" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -7389,19 +7398,19 @@
         <v>121</v>
       </c>
       <c r="F115" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="G115" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H115" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I115" t="s">
         <v>121</v>
       </c>
       <c r="J115" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -7421,19 +7430,19 @@
         <v>122</v>
       </c>
       <c r="F116" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G116" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H116" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I116" t="s">
         <v>122</v>
       </c>
       <c r="J116" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -7453,19 +7462,19 @@
         <v>123</v>
       </c>
       <c r="F117" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G117" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H117" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I117" t="s">
         <v>123</v>
       </c>
       <c r="J117" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -7485,19 +7494,19 @@
         <v>124</v>
       </c>
       <c r="F118" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G118" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H118" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I118" t="s">
         <v>124</v>
       </c>
       <c r="J118" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -7517,19 +7526,19 @@
         <v>125</v>
       </c>
       <c r="F119" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G119" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H119" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I119" t="s">
         <v>125</v>
       </c>
       <c r="J119" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -7549,19 +7558,19 @@
         <v>126</v>
       </c>
       <c r="F120" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G120" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H120" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="I120" t="s">
         <v>126</v>
       </c>
       <c r="J120" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -7581,19 +7590,19 @@
         <v>127</v>
       </c>
       <c r="F121" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G121" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H121" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I121" t="s">
         <v>127</v>
       </c>
       <c r="J121" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -7613,19 +7622,19 @@
         <v>128</v>
       </c>
       <c r="F122" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G122" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H122" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I122" t="s">
         <v>128</v>
       </c>
       <c r="J122" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -7645,19 +7654,19 @@
         <v>129</v>
       </c>
       <c r="F123" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G123" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H123" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I123" t="s">
         <v>129</v>
       </c>
       <c r="J123" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -7677,19 +7686,19 @@
         <v>130</v>
       </c>
       <c r="F124" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="G124" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H124" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I124" t="s">
         <v>130</v>
       </c>
       <c r="J124" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -7709,19 +7718,19 @@
         <v>131</v>
       </c>
       <c r="F125" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G125" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H125" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I125" t="s">
         <v>131</v>
       </c>
       <c r="J125" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -7741,19 +7750,19 @@
         <v>132</v>
       </c>
       <c r="F126" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G126" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H126" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="I126" t="s">
         <v>132</v>
       </c>
       <c r="J126" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -7773,19 +7782,19 @@
         <v>133</v>
       </c>
       <c r="F127" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G127" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H127" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="I127" t="s">
         <v>133</v>
       </c>
       <c r="J127" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -7805,19 +7814,19 @@
         <v>134</v>
       </c>
       <c r="F128" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="G128" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H128" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="I128" t="s">
         <v>134</v>
       </c>
       <c r="J128" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -7837,19 +7846,19 @@
         <v>219</v>
       </c>
       <c r="F129" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G129" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H129" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="I129" t="s">
         <v>219</v>
       </c>
       <c r="J129" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -7866,22 +7875,22 @@
         <v>368</v>
       </c>
       <c r="E130" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F130" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G130" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H130" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I130" t="s">
         <v>136</v>
       </c>
       <c r="J130" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -7901,19 +7910,19 @@
         <v>137</v>
       </c>
       <c r="F131" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="G131" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H131" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I131" t="s">
         <v>137</v>
       </c>
       <c r="J131" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -7933,19 +7942,19 @@
         <v>138</v>
       </c>
       <c r="F132" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G132" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H132" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I132" t="s">
         <v>138</v>
       </c>
       <c r="J132" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -7965,19 +7974,19 @@
         <v>220</v>
       </c>
       <c r="F133" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G133" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H133" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="I133" t="s">
         <v>220</v>
       </c>
       <c r="J133" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -7991,25 +8000,25 @@
         <v>372</v>
       </c>
       <c r="D134" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E134" t="s">
         <v>139</v>
       </c>
       <c r="F134" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="G134" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H134" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="I134" t="s">
         <v>139</v>
       </c>
       <c r="J134" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -8029,19 +8038,19 @@
         <v>221</v>
       </c>
       <c r="F135" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G135" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H135" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="I135" t="s">
         <v>221</v>
       </c>
       <c r="J135" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -8061,19 +8070,19 @@
         <v>222</v>
       </c>
       <c r="F136" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G136" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H136" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="I136" t="s">
         <v>222</v>
       </c>
       <c r="J136" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -8093,19 +8102,19 @@
         <v>142</v>
       </c>
       <c r="F137" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="G137" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H137" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I137" t="s">
         <v>142</v>
       </c>
       <c r="J137" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -8125,19 +8134,19 @@
         <v>223</v>
       </c>
       <c r="F138" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G138" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H138" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I138" t="s">
         <v>223</v>
       </c>
       <c r="J138" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -8157,19 +8166,19 @@
         <v>144</v>
       </c>
       <c r="F139" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="G139" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H139" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I139" t="s">
         <v>144</v>
       </c>
       <c r="J139" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -8189,19 +8198,19 @@
         <v>145</v>
       </c>
       <c r="F140" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G140" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H140" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I140" t="s">
         <v>145</v>
       </c>
       <c r="J140" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -8221,19 +8230,19 @@
         <v>224</v>
       </c>
       <c r="F141" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G141" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H141" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I141" t="s">
         <v>224</v>
       </c>
       <c r="J141" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -8253,19 +8262,19 @@
         <v>225</v>
       </c>
       <c r="F142" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="G142" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H142" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I142" t="s">
         <v>225</v>
       </c>
       <c r="J142" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -8285,19 +8294,19 @@
         <v>146</v>
       </c>
       <c r="F143" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G143" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H143" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I143" t="s">
         <v>146</v>
       </c>
       <c r="J143" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -8317,19 +8326,19 @@
         <v>147</v>
       </c>
       <c r="F144" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G144" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H144" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I144" t="s">
         <v>147</v>
       </c>
       <c r="J144" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -8349,19 +8358,19 @@
         <v>148</v>
       </c>
       <c r="F145" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G145" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H145" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I145" t="s">
         <v>148</v>
       </c>
       <c r="J145" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -8381,19 +8390,19 @@
         <v>149</v>
       </c>
       <c r="F146" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="G146" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H146" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I146" t="s">
         <v>149</v>
       </c>
       <c r="J146" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -8413,19 +8422,19 @@
         <v>150</v>
       </c>
       <c r="F147" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G147" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H147" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I147" t="s">
         <v>150</v>
       </c>
       <c r="J147" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -8439,25 +8448,25 @@
         <v>386</v>
       </c>
       <c r="D148" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E148" t="s">
         <v>151</v>
       </c>
       <c r="F148" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="G148" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H148" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I148" t="s">
         <v>151</v>
       </c>
       <c r="J148" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -8477,19 +8486,19 @@
         <v>152</v>
       </c>
       <c r="F149" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G149" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H149" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I149" t="s">
         <v>152</v>
       </c>
       <c r="J149" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -8509,19 +8518,19 @@
         <v>226</v>
       </c>
       <c r="F150" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G150" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H150" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I150" t="s">
         <v>226</v>
       </c>
       <c r="J150" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -8541,19 +8550,19 @@
         <v>154</v>
       </c>
       <c r="F151" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G151" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H151" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I151" t="s">
         <v>154</v>
       </c>
       <c r="J151" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -8567,25 +8576,25 @@
         <v>390</v>
       </c>
       <c r="D152" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E152" t="s">
         <v>155</v>
       </c>
       <c r="F152" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G152" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H152" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I152" t="s">
         <v>155</v>
       </c>
       <c r="J152" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -8605,19 +8614,19 @@
         <v>156</v>
       </c>
       <c r="F153" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G153" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H153" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I153" t="s">
         <v>156</v>
       </c>
       <c r="J153" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -8637,19 +8646,19 @@
         <v>157</v>
       </c>
       <c r="F154" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G154" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H154" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I154" t="s">
         <v>157</v>
       </c>
       <c r="J154" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -8669,19 +8678,19 @@
         <v>158</v>
       </c>
       <c r="F155" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G155" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H155" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I155" t="s">
         <v>158</v>
       </c>
       <c r="J155" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -8701,19 +8710,19 @@
         <v>159</v>
       </c>
       <c r="F156" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G156" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H156" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I156" t="s">
         <v>159</v>
       </c>
       <c r="J156" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -8733,19 +8742,19 @@
         <v>160</v>
       </c>
       <c r="F157" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G157" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H157" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I157" t="s">
         <v>160</v>
       </c>
       <c r="J157" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -8765,7 +8774,7 @@
         <v>161</v>
       </c>
       <c r="F158" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="G158" t="s">
         <v>396</v>
@@ -8777,7 +8786,7 @@
         <v>161</v>
       </c>
       <c r="J158" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -8791,25 +8800,25 @@
         <v>397</v>
       </c>
       <c r="D159" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E159" t="s">
         <v>162</v>
       </c>
       <c r="F159" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G159" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H159" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I159" t="s">
         <v>162</v>
       </c>
       <c r="J159" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -8829,19 +8838,19 @@
         <v>163</v>
       </c>
       <c r="F160" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G160" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H160" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I160" t="s">
         <v>163</v>
       </c>
       <c r="J160" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -8861,19 +8870,19 @@
         <v>164</v>
       </c>
       <c r="F161" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G161" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H161" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="I161" t="s">
         <v>164</v>
       </c>
       <c r="J161" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -8893,19 +8902,19 @@
         <v>165</v>
       </c>
       <c r="F162" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G162" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H162" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="I162" t="s">
         <v>165</v>
       </c>
       <c r="J162" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -8925,19 +8934,19 @@
         <v>166</v>
       </c>
       <c r="F163" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G163" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H163" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="I163" t="s">
         <v>166</v>
       </c>
       <c r="J163" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -8957,19 +8966,19 @@
         <v>167</v>
       </c>
       <c r="F164" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="G164" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H164" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I164" t="s">
         <v>167</v>
       </c>
       <c r="J164" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -8989,19 +8998,19 @@
         <v>168</v>
       </c>
       <c r="F165" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G165" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H165" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I165" t="s">
         <v>168</v>
       </c>
       <c r="J165" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -9021,19 +9030,19 @@
         <v>169</v>
       </c>
       <c r="F166" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G166" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H166" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I166" t="s">
         <v>169</v>
       </c>
       <c r="J166" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -9053,19 +9062,19 @@
         <v>170</v>
       </c>
       <c r="F167" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G167" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H167" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I167" t="s">
         <v>170</v>
       </c>
       <c r="J167" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -9079,25 +9088,25 @@
         <v>406</v>
       </c>
       <c r="D168" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E168" t="s">
         <v>171</v>
       </c>
       <c r="F168" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G168" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H168" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I168" t="s">
         <v>171</v>
       </c>
       <c r="J168" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -9117,19 +9126,19 @@
         <v>172</v>
       </c>
       <c r="F169" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G169" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H169" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I169" t="s">
         <v>172</v>
       </c>
       <c r="J169" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -9149,19 +9158,19 @@
         <v>173</v>
       </c>
       <c r="F170" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="G170" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H170" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I170" t="s">
         <v>173</v>
       </c>
       <c r="J170" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -9181,19 +9190,19 @@
         <v>174</v>
       </c>
       <c r="F171" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G171" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H171" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I171" t="s">
         <v>174</v>
       </c>
       <c r="J171" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -9213,19 +9222,19 @@
         <v>175</v>
       </c>
       <c r="F172" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G172" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H172" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I172" t="s">
         <v>175</v>
       </c>
       <c r="J172" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -9245,19 +9254,19 @@
         <v>176</v>
       </c>
       <c r="F173" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="G173" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H173" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I173" t="s">
         <v>176</v>
       </c>
       <c r="J173" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -9271,25 +9280,25 @@
         <v>412</v>
       </c>
       <c r="D174" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E174" t="s">
         <v>177</v>
       </c>
       <c r="F174" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G174" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H174" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I174" t="s">
         <v>177</v>
       </c>
       <c r="J174" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -9297,25 +9306,25 @@
         <v>413</v>
       </c>
       <c r="D175" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E175" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F175" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G175" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H175" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I175" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J175" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -9323,25 +9332,25 @@
         <v>414</v>
       </c>
       <c r="D176" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E176" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F176" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G176" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H176" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I176" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="J176" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -9358,19 +9367,19 @@
         <v>415</v>
       </c>
       <c r="F177" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G177" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H177" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I177" t="s">
         <v>178</v>
       </c>
       <c r="J177" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -9387,19 +9396,19 @@
         <v>416</v>
       </c>
       <c r="F178" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G178" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H178" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I178" t="s">
         <v>179</v>
       </c>
       <c r="J178" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -9419,19 +9428,19 @@
         <v>227</v>
       </c>
       <c r="F179" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="G179" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H179" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="I179" t="s">
         <v>227</v>
       </c>
       <c r="J179" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -9442,22 +9451,22 @@
         <v>418</v>
       </c>
       <c r="E180" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F180" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G180" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H180" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I180" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="J180" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -9471,25 +9480,25 @@
         <v>419</v>
       </c>
       <c r="D181" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E181" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F181" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G181" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="H181" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="I181" t="s">
         <v>228</v>
       </c>
       <c r="J181" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -9503,25 +9512,25 @@
         <v>420</v>
       </c>
       <c r="D182" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E182" t="s">
         <v>229</v>
       </c>
       <c r="F182" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G182" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H182" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="I182" t="s">
         <v>229</v>
       </c>
       <c r="J182" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -9538,19 +9547,19 @@
         <v>421</v>
       </c>
       <c r="F183" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="G183" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="H183" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I183" t="s">
         <v>180</v>
       </c>
       <c r="J183" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -9561,22 +9570,22 @@
         <v>422</v>
       </c>
       <c r="E184" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F184" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="G184" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H184" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I184" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J184" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -9584,25 +9593,25 @@
         <v>423</v>
       </c>
       <c r="D185" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E185" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F185" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G185" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H185" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="I185" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J185" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -9619,19 +9628,19 @@
         <v>424</v>
       </c>
       <c r="F186" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="G186" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H186" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I186" t="s">
         <v>181</v>
       </c>
       <c r="J186" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -9648,19 +9657,19 @@
         <v>425</v>
       </c>
       <c r="F187" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G187" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H187" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I187" t="s">
         <v>182</v>
       </c>
       <c r="J187" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -9668,25 +9677,25 @@
         <v>426</v>
       </c>
       <c r="D188" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E188" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F188" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="G188" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H188" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I188" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J188" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -9700,22 +9709,22 @@
         <v>427</v>
       </c>
       <c r="D189" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E189" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G189" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="H189" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I189" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="J189" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -9732,19 +9741,19 @@
         <v>428</v>
       </c>
       <c r="F190" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G190" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H190" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I190" t="s">
         <v>183</v>
       </c>
       <c r="J190" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -9758,22 +9767,22 @@
         <v>429</v>
       </c>
       <c r="D191" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F191" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="G191" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H191" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I191" t="s">
         <v>184</v>
       </c>
       <c r="J191" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -9784,22 +9793,22 @@
         <v>430</v>
       </c>
       <c r="E192" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F192" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G192" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H192" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I192" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="J192" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -9816,19 +9825,19 @@
         <v>431</v>
       </c>
       <c r="F193" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G193" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H193" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I193" t="s">
         <v>185</v>
       </c>
       <c r="J193" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -9839,22 +9848,22 @@
         <v>432</v>
       </c>
       <c r="E194" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F194" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="G194" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H194" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I194" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="J194" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -9862,25 +9871,25 @@
         <v>433</v>
       </c>
       <c r="D195" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E195" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F195" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G195" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H195" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I195" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="J195" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -9894,22 +9903,22 @@
         <v>434</v>
       </c>
       <c r="D196" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F196" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="G196" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H196" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="I196" t="s">
         <v>186</v>
       </c>
       <c r="J196" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -9926,19 +9935,19 @@
         <v>435</v>
       </c>
       <c r="F197" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G197" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H197" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I197" t="s">
         <v>187</v>
       </c>
       <c r="J197" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -9949,22 +9958,22 @@
         <v>436</v>
       </c>
       <c r="E198" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F198" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="G198" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H198" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I198" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J198" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -9978,22 +9987,22 @@
         <v>437</v>
       </c>
       <c r="D199" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E199" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G199" t="s">
+        <v>815</v>
+      </c>
+      <c r="H199" t="s">
         <v>813</v>
       </c>
-      <c r="H199" t="s">
-        <v>811</v>
-      </c>
       <c r="I199" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="J199" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -10010,19 +10019,19 @@
         <v>438</v>
       </c>
       <c r="F200" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G200" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="H200" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I200" t="s">
         <v>188</v>
       </c>
       <c r="J200" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -10033,22 +10042,22 @@
         <v>439</v>
       </c>
       <c r="E201" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F201" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G201" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H201" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I201" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J201" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -10056,25 +10065,25 @@
         <v>440</v>
       </c>
       <c r="D202" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E202" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F202" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G202" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H202" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I202" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J202" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -10091,19 +10100,19 @@
         <v>441</v>
       </c>
       <c r="F203" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G203" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H203" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="I203" t="s">
         <v>189</v>
       </c>
       <c r="J203" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -10117,22 +10126,22 @@
         <v>442</v>
       </c>
       <c r="D204" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F204" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G204" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H204" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="I204" t="s">
         <v>190</v>
       </c>
       <c r="J204" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -10152,19 +10161,19 @@
         <v>230</v>
       </c>
       <c r="F205" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="G205" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H205" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I205" t="s">
         <v>230</v>
       </c>
       <c r="J205" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -10175,22 +10184,22 @@
         <v>444</v>
       </c>
       <c r="E206" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F206" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G206" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H206" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I206" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="J206" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -10207,19 +10216,19 @@
         <v>445</v>
       </c>
       <c r="F207" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G207" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H207" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I207" t="s">
         <v>191</v>
       </c>
       <c r="J207" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -10227,25 +10236,25 @@
         <v>446</v>
       </c>
       <c r="D208" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E208" t="s">
         <v>219</v>
       </c>
       <c r="F208" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G208" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H208" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I208" t="s">
         <v>219</v>
       </c>
       <c r="J208" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -10259,25 +10268,25 @@
         <v>447</v>
       </c>
       <c r="D209" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E209" t="s">
         <v>231</v>
       </c>
       <c r="F209" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G209" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H209" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I209" t="s">
         <v>231</v>
       </c>
       <c r="J209" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -10297,19 +10306,19 @@
         <v>192</v>
       </c>
       <c r="F210" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="G210" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H210" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="I210" t="s">
         <v>192</v>
       </c>
       <c r="J210" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -10317,19 +10326,19 @@
         <v>449</v>
       </c>
       <c r="D211" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G211" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H211" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I211" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="J211" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -10346,19 +10355,19 @@
         <v>450</v>
       </c>
       <c r="F212" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G212" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H212" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I212" t="s">
         <v>193</v>
       </c>
       <c r="J212" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -10375,19 +10384,19 @@
         <v>451</v>
       </c>
       <c r="F213" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G213" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H213" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I213" t="s">
         <v>194</v>
       </c>
       <c r="J213" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -10401,25 +10410,25 @@
         <v>452</v>
       </c>
       <c r="D214" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E214" t="s">
         <v>232</v>
       </c>
       <c r="F214" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G214" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H214" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="I214" t="s">
         <v>232</v>
       </c>
       <c r="J214" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -10433,22 +10442,22 @@
         <v>453</v>
       </c>
       <c r="D215" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E215" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G215" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H215" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I215" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J215" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -10456,19 +10465,19 @@
         <v>454</v>
       </c>
       <c r="D216" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G216" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H216" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I216" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="J216" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -10479,22 +10488,22 @@
         <v>455</v>
       </c>
       <c r="E217" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F217" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="G217" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="H217" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I217" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="J217" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -10514,19 +10523,19 @@
         <v>195</v>
       </c>
       <c r="F218" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G218" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H218" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="I218" t="s">
         <v>195</v>
       </c>
       <c r="J218" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -10543,19 +10552,19 @@
         <v>457</v>
       </c>
       <c r="F219" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="G219" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H219" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I219" t="s">
         <v>196</v>
       </c>
       <c r="J219" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -10572,19 +10581,19 @@
         <v>458</v>
       </c>
       <c r="F220" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G220" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H220" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="I220" t="s">
         <v>197</v>
       </c>
       <c r="J220" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -10598,19 +10607,19 @@
         <v>459</v>
       </c>
       <c r="D221" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G221" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H221" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I221" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="J221" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -10627,19 +10636,19 @@
         <v>460</v>
       </c>
       <c r="F222" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G222" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H222" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I222" t="s">
         <v>198</v>
       </c>
       <c r="J222" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -10659,19 +10668,19 @@
         <v>233</v>
       </c>
       <c r="F223" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G223" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H223" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="I223" t="s">
         <v>233</v>
       </c>
       <c r="J223" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -10685,25 +10694,25 @@
         <v>462</v>
       </c>
       <c r="D224" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E224" t="s">
         <v>234</v>
       </c>
       <c r="F224" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="G224" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H224" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I224" t="s">
         <v>234</v>
       </c>
       <c r="J224" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -10711,25 +10720,25 @@
         <v>463</v>
       </c>
       <c r="D225" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E225" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F225" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G225" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H225" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="I225" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="J225" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -10746,19 +10755,19 @@
         <v>464</v>
       </c>
       <c r="F226" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G226" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H226" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I226" t="s">
         <v>199</v>
       </c>
       <c r="J226" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -10766,25 +10775,25 @@
         <v>465</v>
       </c>
       <c r="D227" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E227" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F227" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G227" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H227" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I227" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="J227" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -10798,22 +10807,22 @@
         <v>466</v>
       </c>
       <c r="D228" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F228" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="G228" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H228" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I228" t="s">
         <v>200</v>
       </c>
       <c r="J228" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -10821,19 +10830,19 @@
         <v>467</v>
       </c>
       <c r="D229" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G229" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H229" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I229" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="J229" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -10850,19 +10859,19 @@
         <v>468</v>
       </c>
       <c r="F230" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G230" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H230" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I230" t="s">
         <v>201</v>
       </c>
       <c r="J230" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -10876,25 +10885,25 @@
         <v>469</v>
       </c>
       <c r="D231" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E231" t="s">
         <v>235</v>
       </c>
       <c r="F231" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G231" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H231" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I231" t="s">
         <v>235</v>
       </c>
       <c r="J231" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -10911,19 +10920,19 @@
         <v>470</v>
       </c>
       <c r="F232" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G232" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H232" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I232" t="s">
         <v>202</v>
       </c>
       <c r="J232" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -10931,25 +10940,25 @@
         <v>471</v>
       </c>
       <c r="D233" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E233" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F233" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="G233" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H233" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I233" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="J233" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -10960,22 +10969,22 @@
         <v>472</v>
       </c>
       <c r="E234" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F234" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G234" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H234" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I234" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J234" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -10989,25 +10998,25 @@
         <v>473</v>
       </c>
       <c r="D235" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E235" t="s">
         <v>236</v>
       </c>
       <c r="F235" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G235" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H235" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I235" t="s">
         <v>236</v>
       </c>
       <c r="J235" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -11021,25 +11030,25 @@
         <v>474</v>
       </c>
       <c r="D236" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E236" t="s">
         <v>237</v>
       </c>
       <c r="F236" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G236" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="H236" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="I236" t="s">
         <v>237</v>
       </c>
       <c r="J236" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -11053,25 +11062,25 @@
         <v>475</v>
       </c>
       <c r="D237" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E237" t="s">
         <v>238</v>
       </c>
       <c r="F237" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="G237" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="H237" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I237" t="s">
         <v>238</v>
       </c>
       <c r="J237" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -11085,25 +11094,25 @@
         <v>476</v>
       </c>
       <c r="D238" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E238" t="s">
         <v>203</v>
       </c>
       <c r="F238" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G238" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H238" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I238" t="s">
         <v>203</v>
       </c>
       <c r="J238" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -11120,19 +11129,19 @@
         <v>477</v>
       </c>
       <c r="E239" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G239" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H239" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="I239" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="J239" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -11152,19 +11161,19 @@
         <v>239</v>
       </c>
       <c r="F240" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G240" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H240" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="I240" t="s">
         <v>239</v>
       </c>
       <c r="J240" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -11172,25 +11181,25 @@
         <v>479</v>
       </c>
       <c r="D241" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E241" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F241" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="G241" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H241" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I241" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J241" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -11207,19 +11216,19 @@
         <v>480</v>
       </c>
       <c r="F242" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G242" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H242" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="I242" t="s">
         <v>204</v>
       </c>
       <c r="J242" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -11236,19 +11245,19 @@
         <v>481</v>
       </c>
       <c r="F243" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="G243" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H243" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I243" t="s">
         <v>205</v>
       </c>
       <c r="J243" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -11265,19 +11274,19 @@
         <v>482</v>
       </c>
       <c r="F244" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G244" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H244" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="I244" t="s">
         <v>206</v>
       </c>
       <c r="J244" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -11285,25 +11294,25 @@
         <v>483</v>
       </c>
       <c r="D245" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E245" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F245" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G245" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H245" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I245" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="J245" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -11320,19 +11329,19 @@
         <v>484</v>
       </c>
       <c r="F246" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="G246" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H246" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I246" t="s">
         <v>200</v>
       </c>
       <c r="J246" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -11346,22 +11355,22 @@
         <v>485</v>
       </c>
       <c r="D247" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F247" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="G247" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H247" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I247" t="s">
         <v>207</v>
       </c>
       <c r="J247" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -11369,22 +11378,22 @@
         <v>486</v>
       </c>
       <c r="D248" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F248" t="s">
         <v>219</v>
       </c>
       <c r="G248" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H248" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I248" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="J248" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -11392,25 +11401,25 @@
         <v>487</v>
       </c>
       <c r="D249" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E249" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F249" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G249" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H249" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="I249" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="J249" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -11430,19 +11439,19 @@
         <v>208</v>
       </c>
       <c r="F250" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G250" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H250" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I250" t="s">
         <v>208</v>
       </c>
       <c r="J250" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -11462,19 +11471,39 @@
         <v>209</v>
       </c>
       <c r="F251" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G251" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H251" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I251" t="s">
         <v>209</v>
       </c>
       <c r="J251" t="s">
-        <v>1089</v>
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="C252" t="s">
+        <v>490</v>
+      </c>
+      <c r="D252" t="s">
+        <v>547</v>
+      </c>
+      <c r="G252" t="s">
+        <v>808</v>
+      </c>
+      <c r="H252" t="s">
+        <v>834</v>
+      </c>
+      <c r="I252" t="s">
+        <v>132</v>
+      </c>
+      <c r="J252" t="s">
+        <v>1092</v>
       </c>
     </row>
   </sheetData>
@@ -11492,36 +11521,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="C2" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="D2" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="E2" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
@@ -11539,10 +11568,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11550,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11558,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11566,7 +11595,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11574,7 +11603,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11582,7 +11611,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11590,7 +11619,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11598,7 +11627,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11606,23 +11635,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B10" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B11" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11630,7 +11659,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11638,7 +11667,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
     </row>
   </sheetData>

--- a/countries_with_tiny_vkp.xlsx
+++ b/countries_with_tiny_vkp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="1120">
   <si>
     <t>SOV_A3</t>
   </si>
@@ -2529,6 +2529,9 @@
     <t>BQN</t>
   </si>
   <si>
+    <t>NLM</t>
+  </si>
+  <si>
     <t>NLC</t>
   </si>
   <si>
@@ -2542,6 +2545,9 @@
   </si>
   <si>
     <t>COC</t>
+  </si>
+  <si>
+    <t>CHI</t>
   </si>
   <si>
     <t>MULTIPOLYGON (((180 -16.067132663642447, 180 -16.555216566639196, 179.36414266196414 -16.801354076946883, 178.72505936299711 -17.01204167436804, 178.59683859511713 -16.639150000000004, 179.0966093629971 -16.433984277547403, 179.4135093629971 -16.379054277547404, 180 -16.067132663642447)), ((178.12557 -17.50481, 178.3736 -17.33992, 178.71806 -17.62846, 178.55271 -18.15059, 177.93266000000003 -18.28799, 177.38146 -18.16432, 177.28504 -17.72465, 177.67087 -17.381140000000002, 178.12557 -17.50481)), ((-179.79332010904864 -16.020882256741224, -179.9173693847653 -16.501783135649397, -180 -16.555216566639196, -180 -16.067132663642447, -179.79332010904864 -16.020882256741224)))</t>
@@ -3794,7 +3800,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3826,7 +3832,7 @@
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3858,7 +3864,7 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3890,7 +3896,7 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3922,7 +3928,7 @@
         <v>210</v>
       </c>
       <c r="J6" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3954,7 +3960,7 @@
         <v>211</v>
       </c>
       <c r="J7" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3986,7 +3992,7 @@
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4018,7 +4024,7 @@
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4050,7 +4056,7 @@
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4082,7 +4088,7 @@
         <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4114,7 +4120,7 @@
         <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4146,7 +4152,7 @@
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4178,7 +4184,7 @@
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4210,7 +4216,7 @@
         <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4242,7 +4248,7 @@
         <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4274,7 +4280,7 @@
         <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4306,7 +4312,7 @@
         <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4338,7 +4344,7 @@
         <v>27</v>
       </c>
       <c r="J19" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4370,7 +4376,7 @@
         <v>28</v>
       </c>
       <c r="J20" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4402,7 +4408,7 @@
         <v>212</v>
       </c>
       <c r="J21" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4434,7 +4440,7 @@
         <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4466,7 +4472,7 @@
         <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4498,7 +4504,7 @@
         <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4530,7 +4536,7 @@
         <v>33</v>
       </c>
       <c r="J25" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4562,7 +4568,7 @@
         <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4594,7 +4600,7 @@
         <v>35</v>
       </c>
       <c r="J27" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4626,7 +4632,7 @@
         <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4658,7 +4664,7 @@
         <v>37</v>
       </c>
       <c r="J29" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4690,7 +4696,7 @@
         <v>38</v>
       </c>
       <c r="J30" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4722,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4754,7 +4760,7 @@
         <v>40</v>
       </c>
       <c r="J32" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4786,7 +4792,7 @@
         <v>41</v>
       </c>
       <c r="J33" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4818,7 +4824,7 @@
         <v>42</v>
       </c>
       <c r="J34" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4850,7 +4856,7 @@
         <v>43</v>
       </c>
       <c r="J35" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4882,7 +4888,7 @@
         <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4914,7 +4920,7 @@
         <v>45</v>
       </c>
       <c r="J37" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4946,7 +4952,7 @@
         <v>46</v>
       </c>
       <c r="J38" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4978,7 +4984,7 @@
         <v>47</v>
       </c>
       <c r="J39" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -5010,7 +5016,7 @@
         <v>48</v>
       </c>
       <c r="J40" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -5042,7 +5048,7 @@
         <v>49</v>
       </c>
       <c r="J41" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -5074,7 +5080,7 @@
         <v>50</v>
       </c>
       <c r="J42" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -5106,7 +5112,7 @@
         <v>51</v>
       </c>
       <c r="J43" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -5138,7 +5144,7 @@
         <v>52</v>
       </c>
       <c r="J44" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -5170,7 +5176,7 @@
         <v>215</v>
       </c>
       <c r="J45" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -5202,7 +5208,7 @@
         <v>53</v>
       </c>
       <c r="J46" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -5234,7 +5240,7 @@
         <v>216</v>
       </c>
       <c r="J47" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -5266,7 +5272,7 @@
         <v>55</v>
       </c>
       <c r="J48" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -5298,7 +5304,7 @@
         <v>56</v>
       </c>
       <c r="J49" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -5330,7 +5336,7 @@
         <v>57</v>
       </c>
       <c r="J50" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -5362,7 +5368,7 @@
         <v>58</v>
       </c>
       <c r="J51" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -5394,7 +5400,7 @@
         <v>59</v>
       </c>
       <c r="J52" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -5426,7 +5432,7 @@
         <v>60</v>
       </c>
       <c r="J53" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -5458,7 +5464,7 @@
         <v>61</v>
       </c>
       <c r="J54" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -5490,7 +5496,7 @@
         <v>62</v>
       </c>
       <c r="J55" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -5522,7 +5528,7 @@
         <v>63</v>
       </c>
       <c r="J56" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -5554,7 +5560,7 @@
         <v>64</v>
       </c>
       <c r="J57" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -5586,7 +5592,7 @@
         <v>65</v>
       </c>
       <c r="J58" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -5618,7 +5624,7 @@
         <v>66</v>
       </c>
       <c r="J59" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -5650,7 +5656,7 @@
         <v>67</v>
       </c>
       <c r="J60" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -5682,7 +5688,7 @@
         <v>68</v>
       </c>
       <c r="J61" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -5714,7 +5720,7 @@
         <v>69</v>
       </c>
       <c r="J62" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -5746,7 +5752,7 @@
         <v>70</v>
       </c>
       <c r="J63" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -5778,7 +5784,7 @@
         <v>71</v>
       </c>
       <c r="J64" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -5810,7 +5816,7 @@
         <v>72</v>
       </c>
       <c r="J65" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -5842,7 +5848,7 @@
         <v>73</v>
       </c>
       <c r="J66" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -5874,7 +5880,7 @@
         <v>74</v>
       </c>
       <c r="J67" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -5906,7 +5912,7 @@
         <v>75</v>
       </c>
       <c r="J68" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -5938,7 +5944,7 @@
         <v>76</v>
       </c>
       <c r="J69" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -5970,7 +5976,7 @@
         <v>77</v>
       </c>
       <c r="J70" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -6002,7 +6008,7 @@
         <v>78</v>
       </c>
       <c r="J71" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -6034,7 +6040,7 @@
         <v>79</v>
       </c>
       <c r="J72" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -6066,7 +6072,7 @@
         <v>80</v>
       </c>
       <c r="J73" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -6098,7 +6104,7 @@
         <v>81</v>
       </c>
       <c r="J74" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -6130,7 +6136,7 @@
         <v>82</v>
       </c>
       <c r="J75" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -6162,7 +6168,7 @@
         <v>217</v>
       </c>
       <c r="J76" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -6194,7 +6200,7 @@
         <v>84</v>
       </c>
       <c r="J77" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -6226,7 +6232,7 @@
         <v>85</v>
       </c>
       <c r="J78" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -6258,7 +6264,7 @@
         <v>218</v>
       </c>
       <c r="J79" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -6290,7 +6296,7 @@
         <v>86</v>
       </c>
       <c r="J80" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -6322,7 +6328,7 @@
         <v>87</v>
       </c>
       <c r="J81" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -6354,7 +6360,7 @@
         <v>88</v>
       </c>
       <c r="J82" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -6386,7 +6392,7 @@
         <v>89</v>
       </c>
       <c r="J83" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -6418,7 +6424,7 @@
         <v>90</v>
       </c>
       <c r="J84" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -6450,7 +6456,7 @@
         <v>91</v>
       </c>
       <c r="J85" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -6482,7 +6488,7 @@
         <v>92</v>
       </c>
       <c r="J86" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -6514,7 +6520,7 @@
         <v>93</v>
       </c>
       <c r="J87" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -6546,7 +6552,7 @@
         <v>94</v>
       </c>
       <c r="J88" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -6578,7 +6584,7 @@
         <v>95</v>
       </c>
       <c r="J89" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -6610,7 +6616,7 @@
         <v>96</v>
       </c>
       <c r="J90" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -6642,7 +6648,7 @@
         <v>97</v>
       </c>
       <c r="J91" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -6674,7 +6680,7 @@
         <v>98</v>
       </c>
       <c r="J92" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -6706,7 +6712,7 @@
         <v>99</v>
       </c>
       <c r="J93" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -6738,7 +6744,7 @@
         <v>100</v>
       </c>
       <c r="J94" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -6770,7 +6776,7 @@
         <v>101</v>
       </c>
       <c r="J95" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -6802,7 +6808,7 @@
         <v>102</v>
       </c>
       <c r="J96" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -6834,7 +6840,7 @@
         <v>103</v>
       </c>
       <c r="J97" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -6866,7 +6872,7 @@
         <v>104</v>
       </c>
       <c r="J98" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -6898,7 +6904,7 @@
         <v>105</v>
       </c>
       <c r="J99" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -6930,7 +6936,7 @@
         <v>106</v>
       </c>
       <c r="J100" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -6962,7 +6968,7 @@
         <v>107</v>
       </c>
       <c r="J101" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -6994,7 +7000,7 @@
         <v>108</v>
       </c>
       <c r="J102" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -7026,7 +7032,7 @@
         <v>109</v>
       </c>
       <c r="J103" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -7058,7 +7064,7 @@
         <v>110</v>
       </c>
       <c r="J104" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -7090,7 +7096,7 @@
         <v>111</v>
       </c>
       <c r="J105" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -7122,7 +7128,7 @@
         <v>112</v>
       </c>
       <c r="J106" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -7154,7 +7160,7 @@
         <v>113</v>
       </c>
       <c r="J107" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -7186,7 +7192,7 @@
         <v>114</v>
       </c>
       <c r="J108" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -7218,7 +7224,7 @@
         <v>115</v>
       </c>
       <c r="J109" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -7250,7 +7256,7 @@
         <v>116</v>
       </c>
       <c r="J110" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -7282,7 +7288,7 @@
         <v>117</v>
       </c>
       <c r="J111" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -7314,7 +7320,7 @@
         <v>118</v>
       </c>
       <c r="J112" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -7346,7 +7352,7 @@
         <v>119</v>
       </c>
       <c r="J113" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -7378,7 +7384,7 @@
         <v>120</v>
       </c>
       <c r="J114" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -7410,7 +7416,7 @@
         <v>121</v>
       </c>
       <c r="J115" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -7442,7 +7448,7 @@
         <v>122</v>
       </c>
       <c r="J116" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -7474,7 +7480,7 @@
         <v>123</v>
       </c>
       <c r="J117" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -7506,7 +7512,7 @@
         <v>124</v>
       </c>
       <c r="J118" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -7538,7 +7544,7 @@
         <v>125</v>
       </c>
       <c r="J119" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -7570,7 +7576,7 @@
         <v>126</v>
       </c>
       <c r="J120" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -7602,7 +7608,7 @@
         <v>127</v>
       </c>
       <c r="J121" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -7634,7 +7640,7 @@
         <v>128</v>
       </c>
       <c r="J122" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -7666,7 +7672,7 @@
         <v>129</v>
       </c>
       <c r="J123" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -7698,7 +7704,7 @@
         <v>130</v>
       </c>
       <c r="J124" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -7730,7 +7736,7 @@
         <v>131</v>
       </c>
       <c r="J125" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -7762,7 +7768,7 @@
         <v>132</v>
       </c>
       <c r="J126" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -7794,7 +7800,7 @@
         <v>133</v>
       </c>
       <c r="J127" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -7826,7 +7832,7 @@
         <v>134</v>
       </c>
       <c r="J128" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -7858,7 +7864,7 @@
         <v>219</v>
       </c>
       <c r="J129" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -7890,7 +7896,7 @@
         <v>136</v>
       </c>
       <c r="J130" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -7922,7 +7928,7 @@
         <v>137</v>
       </c>
       <c r="J131" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -7954,7 +7960,7 @@
         <v>138</v>
       </c>
       <c r="J132" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -7986,7 +7992,7 @@
         <v>220</v>
       </c>
       <c r="J133" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -8018,7 +8024,7 @@
         <v>139</v>
       </c>
       <c r="J134" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -8050,7 +8056,7 @@
         <v>221</v>
       </c>
       <c r="J135" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -8082,7 +8088,7 @@
         <v>222</v>
       </c>
       <c r="J136" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -8114,7 +8120,7 @@
         <v>142</v>
       </c>
       <c r="J137" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -8146,7 +8152,7 @@
         <v>223</v>
       </c>
       <c r="J138" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -8178,7 +8184,7 @@
         <v>144</v>
       </c>
       <c r="J139" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -8210,7 +8216,7 @@
         <v>145</v>
       </c>
       <c r="J140" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -8242,7 +8248,7 @@
         <v>224</v>
       </c>
       <c r="J141" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -8274,7 +8280,7 @@
         <v>225</v>
       </c>
       <c r="J142" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -8306,7 +8312,7 @@
         <v>146</v>
       </c>
       <c r="J143" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -8338,7 +8344,7 @@
         <v>147</v>
       </c>
       <c r="J144" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -8370,7 +8376,7 @@
         <v>148</v>
       </c>
       <c r="J145" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -8402,7 +8408,7 @@
         <v>149</v>
       </c>
       <c r="J146" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -8434,7 +8440,7 @@
         <v>150</v>
       </c>
       <c r="J147" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -8466,7 +8472,7 @@
         <v>151</v>
       </c>
       <c r="J148" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -8498,7 +8504,7 @@
         <v>152</v>
       </c>
       <c r="J149" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -8530,7 +8536,7 @@
         <v>226</v>
       </c>
       <c r="J150" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -8562,7 +8568,7 @@
         <v>154</v>
       </c>
       <c r="J151" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -8594,7 +8600,7 @@
         <v>155</v>
       </c>
       <c r="J152" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -8626,7 +8632,7 @@
         <v>156</v>
       </c>
       <c r="J153" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -8658,7 +8664,7 @@
         <v>157</v>
       </c>
       <c r="J154" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -8690,7 +8696,7 @@
         <v>158</v>
       </c>
       <c r="J155" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -8722,7 +8728,7 @@
         <v>159</v>
       </c>
       <c r="J156" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -8754,7 +8760,7 @@
         <v>160</v>
       </c>
       <c r="J157" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -8786,7 +8792,7 @@
         <v>161</v>
       </c>
       <c r="J158" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -8818,7 +8824,7 @@
         <v>162</v>
       </c>
       <c r="J159" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -8850,7 +8856,7 @@
         <v>163</v>
       </c>
       <c r="J160" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -8882,7 +8888,7 @@
         <v>164</v>
       </c>
       <c r="J161" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -8914,7 +8920,7 @@
         <v>165</v>
       </c>
       <c r="J162" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -8946,7 +8952,7 @@
         <v>166</v>
       </c>
       <c r="J163" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -8978,7 +8984,7 @@
         <v>167</v>
       </c>
       <c r="J164" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -9010,7 +9016,7 @@
         <v>168</v>
       </c>
       <c r="J165" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -9042,7 +9048,7 @@
         <v>169</v>
       </c>
       <c r="J166" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -9074,7 +9080,7 @@
         <v>170</v>
       </c>
       <c r="J167" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -9106,7 +9112,7 @@
         <v>171</v>
       </c>
       <c r="J168" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -9138,7 +9144,7 @@
         <v>172</v>
       </c>
       <c r="J169" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -9170,7 +9176,7 @@
         <v>173</v>
       </c>
       <c r="J170" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -9202,7 +9208,7 @@
         <v>174</v>
       </c>
       <c r="J171" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -9234,7 +9240,7 @@
         <v>175</v>
       </c>
       <c r="J172" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -9266,7 +9272,7 @@
         <v>176</v>
       </c>
       <c r="J173" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -9298,7 +9304,7 @@
         <v>177</v>
       </c>
       <c r="J174" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -9324,7 +9330,7 @@
         <v>552</v>
       </c>
       <c r="J175" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -9350,7 +9356,7 @@
         <v>553</v>
       </c>
       <c r="J176" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -9379,7 +9385,7 @@
         <v>178</v>
       </c>
       <c r="J177" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -9408,7 +9414,7 @@
         <v>179</v>
       </c>
       <c r="J178" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -9440,7 +9446,7 @@
         <v>227</v>
       </c>
       <c r="J179" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -9466,7 +9472,7 @@
         <v>554</v>
       </c>
       <c r="J180" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -9498,7 +9504,7 @@
         <v>228</v>
       </c>
       <c r="J181" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -9530,7 +9536,7 @@
         <v>229</v>
       </c>
       <c r="J182" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -9559,7 +9565,7 @@
         <v>180</v>
       </c>
       <c r="J183" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -9585,7 +9591,7 @@
         <v>556</v>
       </c>
       <c r="J184" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -9611,7 +9617,7 @@
         <v>557</v>
       </c>
       <c r="J185" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -9640,7 +9646,7 @@
         <v>181</v>
       </c>
       <c r="J186" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -9669,7 +9675,7 @@
         <v>182</v>
       </c>
       <c r="J187" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -9695,7 +9701,7 @@
         <v>558</v>
       </c>
       <c r="J188" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -9724,7 +9730,7 @@
         <v>559</v>
       </c>
       <c r="J189" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -9753,7 +9759,7 @@
         <v>183</v>
       </c>
       <c r="J190" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -9782,7 +9788,7 @@
         <v>184</v>
       </c>
       <c r="J191" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -9808,7 +9814,7 @@
         <v>836</v>
       </c>
       <c r="J192" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -9837,7 +9843,7 @@
         <v>185</v>
       </c>
       <c r="J193" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -9863,7 +9869,7 @@
         <v>561</v>
       </c>
       <c r="J194" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -9889,7 +9895,7 @@
         <v>562</v>
       </c>
       <c r="J195" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -9918,7 +9924,7 @@
         <v>186</v>
       </c>
       <c r="J196" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -9947,7 +9953,7 @@
         <v>187</v>
       </c>
       <c r="J197" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -9973,7 +9979,7 @@
         <v>563</v>
       </c>
       <c r="J198" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -10002,7 +10008,7 @@
         <v>564</v>
       </c>
       <c r="J199" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -10031,7 +10037,7 @@
         <v>188</v>
       </c>
       <c r="J200" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -10057,7 +10063,7 @@
         <v>565</v>
       </c>
       <c r="J201" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -10083,7 +10089,7 @@
         <v>566</v>
       </c>
       <c r="J202" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -10112,7 +10118,7 @@
         <v>189</v>
       </c>
       <c r="J203" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -10141,7 +10147,7 @@
         <v>190</v>
       </c>
       <c r="J204" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -10173,7 +10179,7 @@
         <v>230</v>
       </c>
       <c r="J205" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -10199,7 +10205,7 @@
         <v>567</v>
       </c>
       <c r="J206" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -10228,7 +10234,7 @@
         <v>191</v>
       </c>
       <c r="J207" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -10251,10 +10257,10 @@
         <v>823</v>
       </c>
       <c r="I208" t="s">
-        <v>219</v>
+        <v>837</v>
       </c>
       <c r="J208" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -10286,7 +10292,7 @@
         <v>231</v>
       </c>
       <c r="J209" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -10318,7 +10324,7 @@
         <v>192</v>
       </c>
       <c r="J210" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -10335,10 +10341,10 @@
         <v>823</v>
       </c>
       <c r="I211" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="J211" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -10367,7 +10373,7 @@
         <v>193</v>
       </c>
       <c r="J212" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -10396,7 +10402,7 @@
         <v>194</v>
       </c>
       <c r="J213" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -10428,7 +10434,7 @@
         <v>232</v>
       </c>
       <c r="J214" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -10457,7 +10463,7 @@
         <v>568</v>
       </c>
       <c r="J215" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -10474,10 +10480,10 @@
         <v>829</v>
       </c>
       <c r="I216" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="J216" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -10503,7 +10509,7 @@
         <v>569</v>
       </c>
       <c r="J217" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -10535,7 +10541,7 @@
         <v>195</v>
       </c>
       <c r="J218" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -10564,7 +10570,7 @@
         <v>196</v>
       </c>
       <c r="J219" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -10593,7 +10599,7 @@
         <v>197</v>
       </c>
       <c r="J220" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -10616,10 +10622,10 @@
         <v>832</v>
       </c>
       <c r="I221" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J221" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -10648,7 +10654,7 @@
         <v>198</v>
       </c>
       <c r="J222" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -10680,7 +10686,7 @@
         <v>233</v>
       </c>
       <c r="J223" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -10712,7 +10718,7 @@
         <v>234</v>
       </c>
       <c r="J224" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -10735,10 +10741,10 @@
         <v>817</v>
       </c>
       <c r="I225" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J225" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -10767,7 +10773,7 @@
         <v>199</v>
       </c>
       <c r="J226" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -10793,7 +10799,7 @@
         <v>571</v>
       </c>
       <c r="J227" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -10822,7 +10828,7 @@
         <v>200</v>
       </c>
       <c r="J228" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -10839,10 +10845,10 @@
         <v>821</v>
       </c>
       <c r="I229" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J229" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -10871,7 +10877,7 @@
         <v>201</v>
       </c>
       <c r="J230" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -10903,7 +10909,7 @@
         <v>235</v>
       </c>
       <c r="J231" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -10932,7 +10938,7 @@
         <v>202</v>
       </c>
       <c r="J232" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -10958,7 +10964,7 @@
         <v>572</v>
       </c>
       <c r="J233" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -10984,7 +10990,7 @@
         <v>573</v>
       </c>
       <c r="J234" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -11016,7 +11022,7 @@
         <v>236</v>
       </c>
       <c r="J235" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -11048,7 +11054,7 @@
         <v>237</v>
       </c>
       <c r="J236" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -11080,7 +11086,7 @@
         <v>238</v>
       </c>
       <c r="J237" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -11112,7 +11118,7 @@
         <v>203</v>
       </c>
       <c r="J238" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -11141,7 +11147,7 @@
         <v>574</v>
       </c>
       <c r="J239" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -11173,7 +11179,7 @@
         <v>239</v>
       </c>
       <c r="J240" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -11199,7 +11205,7 @@
         <v>575</v>
       </c>
       <c r="J241" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -11228,7 +11234,7 @@
         <v>204</v>
       </c>
       <c r="J242" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -11257,7 +11263,7 @@
         <v>205</v>
       </c>
       <c r="J243" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -11286,7 +11292,7 @@
         <v>206</v>
       </c>
       <c r="J244" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -11312,7 +11318,7 @@
         <v>571</v>
       </c>
       <c r="J245" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -11341,7 +11347,7 @@
         <v>200</v>
       </c>
       <c r="J246" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -11370,7 +11376,7 @@
         <v>207</v>
       </c>
       <c r="J247" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -11390,10 +11396,10 @@
         <v>823</v>
       </c>
       <c r="I248" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="J248" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -11419,7 +11425,7 @@
         <v>576</v>
       </c>
       <c r="J249" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -11451,7 +11457,7 @@
         <v>208</v>
       </c>
       <c r="J250" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -11483,7 +11489,7 @@
         <v>209</v>
       </c>
       <c r="J251" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -11500,10 +11506,10 @@
         <v>834</v>
       </c>
       <c r="I252" t="s">
-        <v>132</v>
+        <v>843</v>
       </c>
       <c r="J252" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
   </sheetData>
@@ -11521,19 +11527,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11541,16 +11547,16 @@
         <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C2" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D2" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E2" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
@@ -11568,10 +11574,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11579,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11587,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11595,7 +11601,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11603,7 +11609,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11611,7 +11617,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11619,7 +11625,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11627,7 +11633,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11635,23 +11641,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B10" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B11" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11659,7 +11665,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11667,7 +11673,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>

--- a/countries_with_tiny_vkp.xlsx
+++ b/countries_with_tiny_vkp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="1123">
   <si>
     <t>SOV_A3</t>
   </si>
@@ -618,27 +618,27 @@
     <t>BRB</t>
   </si>
   <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>LIE</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
     <t>SMR</t>
   </si>
   <si>
-    <t>CPV</t>
-  </si>
-  <si>
-    <t>BHR</t>
-  </si>
-  <si>
-    <t>GMB</t>
-  </si>
-  <si>
-    <t>LIE</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>MCO</t>
-  </si>
-  <si>
     <t>KNA</t>
   </si>
   <si>
@@ -2391,48 +2391,48 @@
     <t>BB</t>
   </si>
   <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
     <t>SM</t>
   </si>
   <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>FO</t>
-  </si>
-  <si>
-    <t>BH</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>VI</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>GI</t>
-  </si>
-  <si>
-    <t>LI</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
     <t>KN</t>
   </si>
   <si>
@@ -2544,7 +2544,16 @@
     <t>NFI</t>
   </si>
   <si>
+    <t>BEE</t>
+  </si>
+  <si>
+    <t>FRM</t>
+  </si>
+  <si>
     <t>COC</t>
+  </si>
+  <si>
+    <t>NLA</t>
   </si>
   <si>
     <t>CHI</t>
@@ -3800,7 +3809,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3832,7 +3841,7 @@
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3864,7 +3873,7 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3896,7 +3905,7 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3928,7 +3937,7 @@
         <v>210</v>
       </c>
       <c r="J6" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3960,7 +3969,7 @@
         <v>211</v>
       </c>
       <c r="J7" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3992,7 +4001,7 @@
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4024,7 +4033,7 @@
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4056,7 +4065,7 @@
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4088,7 +4097,7 @@
         <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4120,7 +4129,7 @@
         <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4152,7 +4161,7 @@
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4184,7 +4193,7 @@
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4216,7 +4225,7 @@
         <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4248,7 +4257,7 @@
         <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4280,7 +4289,7 @@
         <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4312,7 +4321,7 @@
         <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4344,7 +4353,7 @@
         <v>27</v>
       </c>
       <c r="J19" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4376,7 +4385,7 @@
         <v>28</v>
       </c>
       <c r="J20" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4408,7 +4417,7 @@
         <v>212</v>
       </c>
       <c r="J21" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4440,7 +4449,7 @@
         <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4472,7 +4481,7 @@
         <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4504,7 +4513,7 @@
         <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4536,7 +4545,7 @@
         <v>33</v>
       </c>
       <c r="J25" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4568,7 +4577,7 @@
         <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4600,7 +4609,7 @@
         <v>35</v>
       </c>
       <c r="J27" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4632,7 +4641,7 @@
         <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4664,7 +4673,7 @@
         <v>37</v>
       </c>
       <c r="J29" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4696,7 +4705,7 @@
         <v>38</v>
       </c>
       <c r="J30" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4728,7 +4737,7 @@
         <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4760,7 +4769,7 @@
         <v>40</v>
       </c>
       <c r="J32" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4792,7 +4801,7 @@
         <v>41</v>
       </c>
       <c r="J33" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4824,7 +4833,7 @@
         <v>42</v>
       </c>
       <c r="J34" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4856,7 +4865,7 @@
         <v>43</v>
       </c>
       <c r="J35" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4888,7 +4897,7 @@
         <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4920,7 +4929,7 @@
         <v>45</v>
       </c>
       <c r="J37" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4952,7 +4961,7 @@
         <v>46</v>
       </c>
       <c r="J38" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4984,7 +4993,7 @@
         <v>47</v>
       </c>
       <c r="J39" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -5016,7 +5025,7 @@
         <v>48</v>
       </c>
       <c r="J40" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -5048,7 +5057,7 @@
         <v>49</v>
       </c>
       <c r="J41" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -5080,7 +5089,7 @@
         <v>50</v>
       </c>
       <c r="J42" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -5112,7 +5121,7 @@
         <v>51</v>
       </c>
       <c r="J43" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -5144,7 +5153,7 @@
         <v>52</v>
       </c>
       <c r="J44" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -5176,7 +5185,7 @@
         <v>215</v>
       </c>
       <c r="J45" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -5208,7 +5217,7 @@
         <v>53</v>
       </c>
       <c r="J46" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -5240,7 +5249,7 @@
         <v>216</v>
       </c>
       <c r="J47" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -5272,7 +5281,7 @@
         <v>55</v>
       </c>
       <c r="J48" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -5304,7 +5313,7 @@
         <v>56</v>
       </c>
       <c r="J49" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -5336,7 +5345,7 @@
         <v>57</v>
       </c>
       <c r="J50" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -5368,7 +5377,7 @@
         <v>58</v>
       </c>
       <c r="J51" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -5400,7 +5409,7 @@
         <v>59</v>
       </c>
       <c r="J52" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -5432,7 +5441,7 @@
         <v>60</v>
       </c>
       <c r="J53" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -5464,7 +5473,7 @@
         <v>61</v>
       </c>
       <c r="J54" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -5496,7 +5505,7 @@
         <v>62</v>
       </c>
       <c r="J55" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -5528,7 +5537,7 @@
         <v>63</v>
       </c>
       <c r="J56" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -5560,7 +5569,7 @@
         <v>64</v>
       </c>
       <c r="J57" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -5592,7 +5601,7 @@
         <v>65</v>
       </c>
       <c r="J58" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -5624,7 +5633,7 @@
         <v>66</v>
       </c>
       <c r="J59" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -5656,7 +5665,7 @@
         <v>67</v>
       </c>
       <c r="J60" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -5688,7 +5697,7 @@
         <v>68</v>
       </c>
       <c r="J61" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -5720,7 +5729,7 @@
         <v>69</v>
       </c>
       <c r="J62" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -5752,7 +5761,7 @@
         <v>70</v>
       </c>
       <c r="J63" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -5784,7 +5793,7 @@
         <v>71</v>
       </c>
       <c r="J64" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -5816,7 +5825,7 @@
         <v>72</v>
       </c>
       <c r="J65" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -5848,7 +5857,7 @@
         <v>73</v>
       </c>
       <c r="J66" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -5880,7 +5889,7 @@
         <v>74</v>
       </c>
       <c r="J67" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -5912,7 +5921,7 @@
         <v>75</v>
       </c>
       <c r="J68" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -5944,7 +5953,7 @@
         <v>76</v>
       </c>
       <c r="J69" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -5976,7 +5985,7 @@
         <v>77</v>
       </c>
       <c r="J70" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -6008,7 +6017,7 @@
         <v>78</v>
       </c>
       <c r="J71" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -6040,7 +6049,7 @@
         <v>79</v>
       </c>
       <c r="J72" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -6072,7 +6081,7 @@
         <v>80</v>
       </c>
       <c r="J73" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -6104,7 +6113,7 @@
         <v>81</v>
       </c>
       <c r="J74" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -6136,7 +6145,7 @@
         <v>82</v>
       </c>
       <c r="J75" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -6168,7 +6177,7 @@
         <v>217</v>
       </c>
       <c r="J76" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -6200,7 +6209,7 @@
         <v>84</v>
       </c>
       <c r="J77" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -6232,7 +6241,7 @@
         <v>85</v>
       </c>
       <c r="J78" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -6264,7 +6273,7 @@
         <v>218</v>
       </c>
       <c r="J79" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -6296,7 +6305,7 @@
         <v>86</v>
       </c>
       <c r="J80" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -6328,7 +6337,7 @@
         <v>87</v>
       </c>
       <c r="J81" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -6360,7 +6369,7 @@
         <v>88</v>
       </c>
       <c r="J82" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -6392,7 +6401,7 @@
         <v>89</v>
       </c>
       <c r="J83" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -6424,7 +6433,7 @@
         <v>90</v>
       </c>
       <c r="J84" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -6456,7 +6465,7 @@
         <v>91</v>
       </c>
       <c r="J85" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -6488,7 +6497,7 @@
         <v>92</v>
       </c>
       <c r="J86" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -6520,7 +6529,7 @@
         <v>93</v>
       </c>
       <c r="J87" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -6552,7 +6561,7 @@
         <v>94</v>
       </c>
       <c r="J88" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -6584,7 +6593,7 @@
         <v>95</v>
       </c>
       <c r="J89" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -6616,7 +6625,7 @@
         <v>96</v>
       </c>
       <c r="J90" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -6648,7 +6657,7 @@
         <v>97</v>
       </c>
       <c r="J91" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -6680,7 +6689,7 @@
         <v>98</v>
       </c>
       <c r="J92" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -6712,7 +6721,7 @@
         <v>99</v>
       </c>
       <c r="J93" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -6744,7 +6753,7 @@
         <v>100</v>
       </c>
       <c r="J94" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -6776,7 +6785,7 @@
         <v>101</v>
       </c>
       <c r="J95" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -6808,7 +6817,7 @@
         <v>102</v>
       </c>
       <c r="J96" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -6840,7 +6849,7 @@
         <v>103</v>
       </c>
       <c r="J97" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -6872,7 +6881,7 @@
         <v>104</v>
       </c>
       <c r="J98" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -6904,7 +6913,7 @@
         <v>105</v>
       </c>
       <c r="J99" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -6936,7 +6945,7 @@
         <v>106</v>
       </c>
       <c r="J100" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -6968,7 +6977,7 @@
         <v>107</v>
       </c>
       <c r="J101" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -7000,7 +7009,7 @@
         <v>108</v>
       </c>
       <c r="J102" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -7032,7 +7041,7 @@
         <v>109</v>
       </c>
       <c r="J103" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -7064,7 +7073,7 @@
         <v>110</v>
       </c>
       <c r="J104" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -7096,7 +7105,7 @@
         <v>111</v>
       </c>
       <c r="J105" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -7128,7 +7137,7 @@
         <v>112</v>
       </c>
       <c r="J106" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -7160,7 +7169,7 @@
         <v>113</v>
       </c>
       <c r="J107" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -7192,7 +7201,7 @@
         <v>114</v>
       </c>
       <c r="J108" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -7224,7 +7233,7 @@
         <v>115</v>
       </c>
       <c r="J109" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -7256,7 +7265,7 @@
         <v>116</v>
       </c>
       <c r="J110" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -7288,7 +7297,7 @@
         <v>117</v>
       </c>
       <c r="J111" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -7320,7 +7329,7 @@
         <v>118</v>
       </c>
       <c r="J112" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -7352,7 +7361,7 @@
         <v>119</v>
       </c>
       <c r="J113" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -7384,7 +7393,7 @@
         <v>120</v>
       </c>
       <c r="J114" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -7416,7 +7425,7 @@
         <v>121</v>
       </c>
       <c r="J115" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -7448,7 +7457,7 @@
         <v>122</v>
       </c>
       <c r="J116" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -7480,7 +7489,7 @@
         <v>123</v>
       </c>
       <c r="J117" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -7512,7 +7521,7 @@
         <v>124</v>
       </c>
       <c r="J118" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -7544,7 +7553,7 @@
         <v>125</v>
       </c>
       <c r="J119" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -7576,7 +7585,7 @@
         <v>126</v>
       </c>
       <c r="J120" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -7608,7 +7617,7 @@
         <v>127</v>
       </c>
       <c r="J121" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -7640,7 +7649,7 @@
         <v>128</v>
       </c>
       <c r="J122" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -7672,7 +7681,7 @@
         <v>129</v>
       </c>
       <c r="J123" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -7704,7 +7713,7 @@
         <v>130</v>
       </c>
       <c r="J124" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -7736,7 +7745,7 @@
         <v>131</v>
       </c>
       <c r="J125" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -7768,7 +7777,7 @@
         <v>132</v>
       </c>
       <c r="J126" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -7800,7 +7809,7 @@
         <v>133</v>
       </c>
       <c r="J127" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -7832,7 +7841,7 @@
         <v>134</v>
       </c>
       <c r="J128" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -7864,7 +7873,7 @@
         <v>219</v>
       </c>
       <c r="J129" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -7896,7 +7905,7 @@
         <v>136</v>
       </c>
       <c r="J130" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -7928,7 +7937,7 @@
         <v>137</v>
       </c>
       <c r="J131" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -7960,7 +7969,7 @@
         <v>138</v>
       </c>
       <c r="J132" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -7992,7 +8001,7 @@
         <v>220</v>
       </c>
       <c r="J133" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -8024,7 +8033,7 @@
         <v>139</v>
       </c>
       <c r="J134" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -8056,7 +8065,7 @@
         <v>221</v>
       </c>
       <c r="J135" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -8088,7 +8097,7 @@
         <v>222</v>
       </c>
       <c r="J136" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -8120,7 +8129,7 @@
         <v>142</v>
       </c>
       <c r="J137" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -8152,7 +8161,7 @@
         <v>223</v>
       </c>
       <c r="J138" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -8184,7 +8193,7 @@
         <v>144</v>
       </c>
       <c r="J139" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -8216,7 +8225,7 @@
         <v>145</v>
       </c>
       <c r="J140" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -8248,7 +8257,7 @@
         <v>224</v>
       </c>
       <c r="J141" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -8280,7 +8289,7 @@
         <v>225</v>
       </c>
       <c r="J142" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -8312,7 +8321,7 @@
         <v>146</v>
       </c>
       <c r="J143" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -8344,7 +8353,7 @@
         <v>147</v>
       </c>
       <c r="J144" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -8376,7 +8385,7 @@
         <v>148</v>
       </c>
       <c r="J145" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -8408,7 +8417,7 @@
         <v>149</v>
       </c>
       <c r="J146" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -8440,7 +8449,7 @@
         <v>150</v>
       </c>
       <c r="J147" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -8472,7 +8481,7 @@
         <v>151</v>
       </c>
       <c r="J148" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -8504,7 +8513,7 @@
         <v>152</v>
       </c>
       <c r="J149" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -8536,7 +8545,7 @@
         <v>226</v>
       </c>
       <c r="J150" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -8568,7 +8577,7 @@
         <v>154</v>
       </c>
       <c r="J151" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -8600,7 +8609,7 @@
         <v>155</v>
       </c>
       <c r="J152" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -8632,7 +8641,7 @@
         <v>156</v>
       </c>
       <c r="J153" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -8664,7 +8673,7 @@
         <v>157</v>
       </c>
       <c r="J154" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -8696,7 +8705,7 @@
         <v>158</v>
       </c>
       <c r="J155" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -8728,7 +8737,7 @@
         <v>159</v>
       </c>
       <c r="J156" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -8760,7 +8769,7 @@
         <v>160</v>
       </c>
       <c r="J157" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -8792,7 +8801,7 @@
         <v>161</v>
       </c>
       <c r="J158" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -8824,7 +8833,7 @@
         <v>162</v>
       </c>
       <c r="J159" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -8856,7 +8865,7 @@
         <v>163</v>
       </c>
       <c r="J160" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -8888,7 +8897,7 @@
         <v>164</v>
       </c>
       <c r="J161" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -8920,7 +8929,7 @@
         <v>165</v>
       </c>
       <c r="J162" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -8952,7 +8961,7 @@
         <v>166</v>
       </c>
       <c r="J163" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -8984,7 +8993,7 @@
         <v>167</v>
       </c>
       <c r="J164" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -9016,7 +9025,7 @@
         <v>168</v>
       </c>
       <c r="J165" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -9048,7 +9057,7 @@
         <v>169</v>
       </c>
       <c r="J166" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -9080,7 +9089,7 @@
         <v>170</v>
       </c>
       <c r="J167" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -9112,7 +9121,7 @@
         <v>171</v>
       </c>
       <c r="J168" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -9144,7 +9153,7 @@
         <v>172</v>
       </c>
       <c r="J169" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -9176,7 +9185,7 @@
         <v>173</v>
       </c>
       <c r="J170" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -9208,7 +9217,7 @@
         <v>174</v>
       </c>
       <c r="J171" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -9240,7 +9249,7 @@
         <v>175</v>
       </c>
       <c r="J172" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -9272,7 +9281,7 @@
         <v>176</v>
       </c>
       <c r="J173" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -9304,7 +9313,7 @@
         <v>177</v>
       </c>
       <c r="J174" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -9330,7 +9339,7 @@
         <v>552</v>
       </c>
       <c r="J175" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -9356,7 +9365,7 @@
         <v>553</v>
       </c>
       <c r="J176" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -9385,7 +9394,7 @@
         <v>178</v>
       </c>
       <c r="J177" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -9414,7 +9423,7 @@
         <v>179</v>
       </c>
       <c r="J178" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -9446,7 +9455,7 @@
         <v>227</v>
       </c>
       <c r="J179" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -9472,7 +9481,7 @@
         <v>554</v>
       </c>
       <c r="J180" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -9504,7 +9513,7 @@
         <v>228</v>
       </c>
       <c r="J181" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -9536,7 +9545,7 @@
         <v>229</v>
       </c>
       <c r="J182" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -9565,7 +9574,7 @@
         <v>180</v>
       </c>
       <c r="J183" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -9591,7 +9600,7 @@
         <v>556</v>
       </c>
       <c r="J184" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -9617,7 +9626,7 @@
         <v>557</v>
       </c>
       <c r="J185" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -9646,7 +9655,7 @@
         <v>181</v>
       </c>
       <c r="J186" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -9675,7 +9684,7 @@
         <v>182</v>
       </c>
       <c r="J187" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -9701,7 +9710,7 @@
         <v>558</v>
       </c>
       <c r="J188" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -9730,7 +9739,7 @@
         <v>559</v>
       </c>
       <c r="J189" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -9759,7 +9768,7 @@
         <v>183</v>
       </c>
       <c r="J190" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -9788,7 +9797,7 @@
         <v>184</v>
       </c>
       <c r="J191" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -9814,7 +9823,7 @@
         <v>836</v>
       </c>
       <c r="J192" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -9843,7 +9852,7 @@
         <v>185</v>
       </c>
       <c r="J193" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -9869,7 +9878,7 @@
         <v>561</v>
       </c>
       <c r="J194" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -9895,7 +9904,7 @@
         <v>562</v>
       </c>
       <c r="J195" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -9924,7 +9933,7 @@
         <v>186</v>
       </c>
       <c r="J196" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -9953,7 +9962,7 @@
         <v>187</v>
       </c>
       <c r="J197" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -9979,7 +9988,7 @@
         <v>563</v>
       </c>
       <c r="J198" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -10008,7 +10017,7 @@
         <v>564</v>
       </c>
       <c r="J199" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -10037,7 +10046,7 @@
         <v>188</v>
       </c>
       <c r="J200" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -10063,7 +10072,7 @@
         <v>565</v>
       </c>
       <c r="J201" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -10089,7 +10098,7 @@
         <v>566</v>
       </c>
       <c r="J202" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -10118,7 +10127,7 @@
         <v>189</v>
       </c>
       <c r="J203" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -10147,7 +10156,7 @@
         <v>190</v>
       </c>
       <c r="J204" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -10179,7 +10188,7 @@
         <v>230</v>
       </c>
       <c r="J205" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -10205,7 +10214,7 @@
         <v>567</v>
       </c>
       <c r="J206" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -10234,7 +10243,7 @@
         <v>191</v>
       </c>
       <c r="J207" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -10260,7 +10269,7 @@
         <v>837</v>
       </c>
       <c r="J208" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -10292,7 +10301,7 @@
         <v>231</v>
       </c>
       <c r="J209" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -10324,7 +10333,7 @@
         <v>192</v>
       </c>
       <c r="J210" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -10344,7 +10353,7 @@
         <v>838</v>
       </c>
       <c r="J211" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -10373,7 +10382,7 @@
         <v>193</v>
       </c>
       <c r="J212" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -10402,7 +10411,7 @@
         <v>194</v>
       </c>
       <c r="J213" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -10434,7 +10443,7 @@
         <v>232</v>
       </c>
       <c r="J214" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -10463,7 +10472,7 @@
         <v>568</v>
       </c>
       <c r="J215" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -10483,7 +10492,7 @@
         <v>839</v>
       </c>
       <c r="J216" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -10509,7 +10518,7 @@
         <v>569</v>
       </c>
       <c r="J217" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -10541,7 +10550,7 @@
         <v>195</v>
       </c>
       <c r="J218" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -10570,7 +10579,7 @@
         <v>196</v>
       </c>
       <c r="J219" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -10599,7 +10608,7 @@
         <v>197</v>
       </c>
       <c r="J220" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -10625,7 +10634,7 @@
         <v>840</v>
       </c>
       <c r="J221" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -10654,7 +10663,7 @@
         <v>198</v>
       </c>
       <c r="J222" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -10686,7 +10695,7 @@
         <v>233</v>
       </c>
       <c r="J223" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -10718,7 +10727,7 @@
         <v>234</v>
       </c>
       <c r="J224" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -10744,7 +10753,7 @@
         <v>841</v>
       </c>
       <c r="J225" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -10773,7 +10782,7 @@
         <v>199</v>
       </c>
       <c r="J226" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -10796,28 +10805,19 @@
         <v>823</v>
       </c>
       <c r="I227" t="s">
-        <v>571</v>
+        <v>842</v>
       </c>
       <c r="J227" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="228" spans="1:10">
-      <c r="A228" t="s">
-        <v>200</v>
-      </c>
-      <c r="B228" t="s">
-        <v>200</v>
-      </c>
       <c r="C228" t="s">
         <v>466</v>
       </c>
       <c r="D228" t="s">
         <v>534</v>
       </c>
-      <c r="F228" t="s">
-        <v>791</v>
-      </c>
       <c r="G228" t="s">
         <v>810</v>
       </c>
@@ -10825,10 +10825,10 @@
         <v>823</v>
       </c>
       <c r="I228" t="s">
-        <v>200</v>
+        <v>843</v>
       </c>
       <c r="J228" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -10845,18 +10845,18 @@
         <v>821</v>
       </c>
       <c r="I229" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="J229" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B230" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C230" t="s">
         <v>468</v>
@@ -10865,7 +10865,7 @@
         <v>468</v>
       </c>
       <c r="F230" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G230" t="s">
         <v>809</v>
@@ -10874,10 +10874,10 @@
         <v>827</v>
       </c>
       <c r="I230" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J230" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -10897,7 +10897,7 @@
         <v>235</v>
       </c>
       <c r="F231" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G231" t="s">
         <v>813</v>
@@ -10909,15 +10909,15 @@
         <v>235</v>
       </c>
       <c r="J231" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B232" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C232" t="s">
         <v>470</v>
@@ -10926,7 +10926,7 @@
         <v>470</v>
       </c>
       <c r="F232" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G232" t="s">
         <v>811</v>
@@ -10935,10 +10935,10 @@
         <v>828</v>
       </c>
       <c r="I232" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J232" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -10952,7 +10952,7 @@
         <v>572</v>
       </c>
       <c r="F233" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G233" t="s">
         <v>810</v>
@@ -10964,7 +10964,7 @@
         <v>572</v>
       </c>
       <c r="J233" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -10978,7 +10978,7 @@
         <v>573</v>
       </c>
       <c r="F234" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G234" t="s">
         <v>810</v>
@@ -10990,7 +10990,7 @@
         <v>573</v>
       </c>
       <c r="J234" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -11010,7 +11010,7 @@
         <v>236</v>
       </c>
       <c r="F235" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G235" t="s">
         <v>810</v>
@@ -11022,7 +11022,7 @@
         <v>236</v>
       </c>
       <c r="J235" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -11042,7 +11042,7 @@
         <v>237</v>
       </c>
       <c r="F236" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G236" t="s">
         <v>814</v>
@@ -11054,7 +11054,7 @@
         <v>237</v>
       </c>
       <c r="J236" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -11074,7 +11074,7 @@
         <v>238</v>
       </c>
       <c r="F237" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G237" t="s">
         <v>814</v>
@@ -11086,15 +11086,15 @@
         <v>238</v>
       </c>
       <c r="J237" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B238" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C238" t="s">
         <v>476</v>
@@ -11103,10 +11103,10 @@
         <v>541</v>
       </c>
       <c r="E238" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F238" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G238" t="s">
         <v>809</v>
@@ -11115,10 +11115,10 @@
         <v>827</v>
       </c>
       <c r="I238" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J238" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -11147,7 +11147,7 @@
         <v>574</v>
       </c>
       <c r="J239" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -11179,7 +11179,7 @@
         <v>239</v>
       </c>
       <c r="J240" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -11193,7 +11193,7 @@
         <v>575</v>
       </c>
       <c r="F241" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G241" t="s">
         <v>813</v>
@@ -11205,15 +11205,15 @@
         <v>575</v>
       </c>
       <c r="J241" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B242" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C242" t="s">
         <v>480</v>
@@ -11222,7 +11222,7 @@
         <v>480</v>
       </c>
       <c r="F242" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G242" t="s">
         <v>813</v>
@@ -11231,18 +11231,18 @@
         <v>831</v>
       </c>
       <c r="I242" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J242" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B243" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C243" t="s">
         <v>481</v>
@@ -11251,7 +11251,7 @@
         <v>481</v>
       </c>
       <c r="F243" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G243" t="s">
         <v>813</v>
@@ -11260,18 +11260,18 @@
         <v>832</v>
       </c>
       <c r="I243" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J243" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B244" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C244" t="s">
         <v>482</v>
@@ -11280,7 +11280,7 @@
         <v>482</v>
       </c>
       <c r="F244" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G244" t="s">
         <v>813</v>
@@ -11289,10 +11289,10 @@
         <v>831</v>
       </c>
       <c r="I244" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J244" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -11318,15 +11318,15 @@
         <v>571</v>
       </c>
       <c r="J245" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B246" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C246" t="s">
         <v>484</v>
@@ -11335,7 +11335,7 @@
         <v>484</v>
       </c>
       <c r="F246" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="G246" t="s">
         <v>813</v>
@@ -11344,10 +11344,10 @@
         <v>832</v>
       </c>
       <c r="I246" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J246" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -11376,7 +11376,7 @@
         <v>207</v>
       </c>
       <c r="J247" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -11396,10 +11396,10 @@
         <v>823</v>
       </c>
       <c r="I248" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="J248" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -11425,7 +11425,7 @@
         <v>576</v>
       </c>
       <c r="J249" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -11457,7 +11457,7 @@
         <v>208</v>
       </c>
       <c r="J250" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -11489,7 +11489,7 @@
         <v>209</v>
       </c>
       <c r="J251" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -11506,10 +11506,10 @@
         <v>834</v>
       </c>
       <c r="I252" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="J252" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -11527,19 +11527,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11547,16 +11547,16 @@
         <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="C2" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="D2" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="E2" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
@@ -11574,10 +11574,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11585,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11593,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11601,7 +11601,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11609,7 +11609,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11617,7 +11617,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11625,7 +11625,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11633,7 +11633,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11641,23 +11641,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="B10" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B11" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11665,7 +11665,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11673,7 +11673,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
